--- a/analysis/cfg-case-study/result-summary/weight-analysis/mtow_iteration_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/weight-analysis/mtow_iteration_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8280"/>
+    <workbookView windowWidth="27948" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -907,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1036,9 +1036,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5928,8 +5925,8 @@
   <sheetPr/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5962,17 +5959,17 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:16">
       <c r="A2" s="8" t="s">
@@ -6009,14 +6006,14 @@
         <v>11</v>
       </c>
       <c r="L2" s="9"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="58" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6057,17 +6054,17 @@
         <f t="shared" ref="K3:K8" si="0">(I3-J3)/I3</f>
         <v>0.276712460748492</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="59">
         <v>454</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="60">
         <f>J3/D3</f>
         <v>0.13880724504122</v>
       </c>
-      <c r="N3" s="62">
+      <c r="N3" s="61">
         <v>62.166692</v>
       </c>
-      <c r="O3" s="63">
+      <c r="O3" s="62">
         <v>44.964393</v>
       </c>
       <c r="P3" s="15">
@@ -6109,19 +6106,19 @@
         <v>0.219923845169847</v>
       </c>
       <c r="L4" s="22"/>
-      <c r="M4" s="64">
+      <c r="M4" s="63">
         <f>J4/D4</f>
         <v>0.191411186521886</v>
       </c>
-      <c r="N4" s="65">
-        <v>88.838619</v>
-      </c>
-      <c r="O4" s="66">
+      <c r="N4" s="64">
+        <v>88.83862</v>
+      </c>
+      <c r="O4" s="65">
         <v>69.300889</v>
       </c>
       <c r="P4" s="20">
         <f>(N4-O4)/N4</f>
-        <v>0.21992383740229</v>
+        <v>0.219923846183113</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6158,19 +6155,19 @@
         <v>0.160530135093011</v>
       </c>
       <c r="L5" s="22"/>
-      <c r="M5" s="64">
+      <c r="M5" s="63">
         <f>J5/D5</f>
         <v>0.238810617977059</v>
       </c>
-      <c r="N5" s="65">
-        <v>115.510547</v>
-      </c>
-      <c r="O5" s="66">
+      <c r="N5" s="64">
+        <v>115.510548</v>
+      </c>
+      <c r="O5" s="65">
         <v>96.967623</v>
       </c>
       <c r="P5" s="20">
         <f>(N5-O5)/N5</f>
-        <v>0.160530137563975</v>
+        <v>0.160530144831449</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6209,19 +6206,19 @@
         <v>0.332376691824642</v>
       </c>
       <c r="L6" s="22"/>
-      <c r="M6" s="67">
+      <c r="M6" s="66">
         <f>J6/D6</f>
         <v>0.119977085112386</v>
       </c>
-      <c r="N6" s="68">
-        <v>56.265255</v>
-      </c>
-      <c r="O6" s="69">
+      <c r="N6" s="67">
+        <v>56.265254</v>
+      </c>
+      <c r="O6" s="68">
         <v>37.563996</v>
       </c>
       <c r="P6" s="25">
         <f>(N6-O6)/N6</f>
-        <v>0.332376686109394</v>
+        <v>0.332376674243753</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6256,19 +6253,19 @@
         <v>0.262502002303879</v>
       </c>
       <c r="L7" s="22"/>
-      <c r="M7" s="67">
+      <c r="M7" s="66">
         <f t="shared" ref="M7:M17" si="1">J7/D7</f>
         <v>0.174225980755507</v>
       </c>
-      <c r="N7" s="68">
-        <v>82.629799</v>
-      </c>
-      <c r="O7" s="69">
+      <c r="N7" s="67">
+        <v>82.629798</v>
+      </c>
+      <c r="O7" s="68">
         <v>60.939311</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" ref="P7:P15" si="2">(N7-O7)/N7</f>
-        <v>0.262502006086206</v>
+        <v>0.262501997160879</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -6303,19 +6300,19 @@
         <v>0.196598704602363</v>
       </c>
       <c r="L8" s="27"/>
-      <c r="M8" s="70">
+      <c r="M8" s="69">
         <f t="shared" si="1"/>
         <v>0.223277366840536</v>
       </c>
-      <c r="N8" s="71">
-        <v>108.994343</v>
-      </c>
-      <c r="O8" s="72">
+      <c r="N8" s="70">
+        <v>108.994342</v>
+      </c>
+      <c r="O8" s="71">
         <v>87.566196</v>
       </c>
       <c r="P8" s="30">
         <f t="shared" si="2"/>
-        <v>0.196598707879729</v>
+        <v>0.196598700508692</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:15">
@@ -6328,8 +6325,8 @@
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
     </row>
     <row r="10" ht="31" customHeight="1" spans="1:16">
       <c r="A10" s="3" t="s">
@@ -6351,17 +6348,17 @@
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="34"/>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="74" t="s">
+      <c r="M10" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="50" customHeight="1" spans="1:16">
       <c r="A11" s="8" t="s">
@@ -6398,14 +6395,14 @@
         <v>11</v>
       </c>
       <c r="L11" s="9"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="57" t="s">
+      <c r="M11" s="74"/>
+      <c r="N11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="58" t="s">
+      <c r="O11" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="59" t="s">
+      <c r="P11" s="58" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6446,17 +6443,17 @@
         <f t="shared" ref="K12:K17" si="5">(I12-J12)/I12</f>
         <v>0.128454708024808</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="59">
         <v>454</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="75">
         <f t="shared" si="1"/>
         <v>0.104672985625428</v>
       </c>
-      <c r="N12" s="62">
+      <c r="N12" s="61">
         <v>41.948037</v>
       </c>
-      <c r="O12" s="63">
+      <c r="O12" s="62">
         <v>36.559614</v>
       </c>
       <c r="P12" s="15">
@@ -6498,19 +6495,19 @@
         <v>0.00123849905423294</v>
       </c>
       <c r="L13" s="22"/>
-      <c r="M13" s="77">
+      <c r="M13" s="76">
         <f t="shared" si="1"/>
         <v>0.148934093109923</v>
       </c>
-      <c r="N13" s="65">
-        <v>58.736623</v>
-      </c>
-      <c r="O13" s="66">
+      <c r="N13" s="64">
+        <v>58.736625</v>
+      </c>
+      <c r="O13" s="65">
         <v>58.663877</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="2"/>
-        <v>0.00123851178846292</v>
+        <v>0.0012385457965962</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -6547,19 +6544,19 @@
         <v>-0.218068969845547</v>
       </c>
       <c r="L14" s="22"/>
-      <c r="M14" s="77">
+      <c r="M14" s="76">
         <f t="shared" si="1"/>
         <v>0.197894823172593</v>
       </c>
-      <c r="N14" s="65">
-        <v>75.525208</v>
-      </c>
-      <c r="O14" s="66">
+      <c r="N14" s="64">
+        <v>75.525211</v>
+      </c>
+      <c r="O14" s="65">
         <v>91.994912</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="2"/>
-        <v>-0.218068965794838</v>
+        <v>-0.218068917410903</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6598,14 +6595,14 @@
         <v>0.150543386090031</v>
       </c>
       <c r="L15" s="22"/>
-      <c r="M15" s="78">
+      <c r="M15" s="77">
         <f t="shared" si="1"/>
         <v>0.101161888247397</v>
       </c>
-      <c r="N15" s="68">
+      <c r="N15" s="67">
         <v>41.522147</v>
       </c>
-      <c r="O15" s="69">
+      <c r="O15" s="68">
         <v>35.271263</v>
       </c>
       <c r="P15" s="25">
@@ -6645,18 +6642,18 @@
         <v>-0.0088835231737932</v>
       </c>
       <c r="L16" s="22"/>
-      <c r="M16" s="78">
+      <c r="M16" s="77">
         <f t="shared" si="1"/>
         <v>0.148428298652991</v>
       </c>
-      <c r="N16" s="68">
+      <c r="N16" s="67">
         <v>58.408147</v>
       </c>
-      <c r="O16" s="69">
+      <c r="O16" s="68">
         <v>58.927017</v>
       </c>
       <c r="P16" s="25">
-        <f t="shared" ref="P16:P22" si="6">(N16-O16)/N16</f>
+        <f t="shared" ref="P16:P26" si="6">(N16-O16)/N16</f>
         <v>-0.00888352099237115</v>
       </c>
     </row>
@@ -6692,14 +6689,14 @@
         <v>-0.318949419013352</v>
       </c>
       <c r="L17" s="27"/>
-      <c r="M17" s="79">
+      <c r="M17" s="78">
         <f t="shared" si="1"/>
         <v>0.204680067195931</v>
       </c>
-      <c r="N17" s="71">
+      <c r="N17" s="70">
         <v>75.294146</v>
       </c>
-      <c r="O17" s="72">
+      <c r="O17" s="71">
         <v>99.30917</v>
       </c>
       <c r="P17" s="30">
@@ -6717,8 +6714,8 @@
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:16">
       <c r="A19" s="3" t="s">
@@ -6740,17 +6737,17 @@
       </c>
       <c r="J19" s="33"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="51" t="s">
+      <c r="L19" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="74" t="s">
+      <c r="M19" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="53" t="s">
+      <c r="N19" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="54"/>
-      <c r="P19" s="55"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="50" customHeight="1" spans="1:16">
       <c r="A20" s="8" t="s">
@@ -6777,24 +6774,24 @@
       <c r="H20" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="80" t="s">
+      <c r="I20" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="81" t="s">
+      <c r="J20" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="82" t="s">
+      <c r="K20" s="81" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="9"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="57" t="s">
+      <c r="M20" s="74"/>
+      <c r="N20" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="58" t="s">
+      <c r="O20" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="59" t="s">
+      <c r="P20" s="58" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6812,7 +6809,7 @@
         <v>2261.630792</v>
       </c>
       <c r="E21" s="39">
-        <f>($C$21-D21)/$C$21</f>
+        <f t="shared" ref="E21:E26" si="7">($C$21-D21)/$C$21</f>
         <v>0.2932403775</v>
       </c>
       <c r="F21" s="40">
@@ -6832,20 +6829,20 @@
         <v>284.901936</v>
       </c>
       <c r="K21" s="39">
-        <f>(I21-J21)/I21</f>
+        <f t="shared" ref="K21:K26" si="8">(I21-J21)/I21</f>
         <v>0.254031870772952</v>
       </c>
-      <c r="L21" s="83">
+      <c r="L21" s="82">
         <v>454</v>
       </c>
-      <c r="M21" s="84">
-        <f t="shared" ref="M21:M26" si="7">J21/D21</f>
+      <c r="M21" s="83">
+        <f t="shared" ref="M21:M26" si="9">J21/D21</f>
         <v>0.125971903551975</v>
       </c>
-      <c r="N21" s="85">
+      <c r="N21" s="84">
         <v>62.644821</v>
       </c>
-      <c r="O21" s="86">
+      <c r="O21" s="85">
         <v>46.73104</v>
       </c>
       <c r="P21" s="39">
@@ -6865,7 +6862,7 @@
         <v>2538.028639</v>
       </c>
       <c r="E22" s="42">
-        <f>($C$21-D22)/$C$21</f>
+        <f t="shared" si="7"/>
         <v>0.2068660503125</v>
       </c>
       <c r="F22" s="43"/>
@@ -6883,23 +6880,23 @@
         <v>445.626745</v>
       </c>
       <c r="K22" s="42">
-        <f>(I22-J22)/I22</f>
+        <f t="shared" si="8"/>
         <v>0.179942270480606</v>
       </c>
-      <c r="L22" s="87"/>
-      <c r="M22" s="88">
-        <f t="shared" si="7"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="87">
+        <f t="shared" si="9"/>
         <v>0.175579872564235</v>
       </c>
-      <c r="N22" s="89">
-        <v>89.13266</v>
-      </c>
-      <c r="O22" s="90">
+      <c r="N22" s="88">
+        <v>89.132662</v>
+      </c>
+      <c r="O22" s="89">
         <v>73.093927</v>
       </c>
       <c r="P22" s="42">
         <f t="shared" si="6"/>
-        <v>0.179942268075473</v>
+        <v>0.179942286476309</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:16">
@@ -6910,15 +6907,15 @@
       <c r="C23" s="18">
         <v>3200</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="41">
         <v>2884.956197</v>
       </c>
       <c r="E23" s="42">
-        <f>($C$21-D23)/$C$21</f>
+        <f t="shared" si="7"/>
         <v>0.0984511884375</v>
       </c>
       <c r="F23" s="43"/>
-      <c r="G23" s="44">
+      <c r="G23" s="41">
         <v>1787.826224</v>
       </c>
       <c r="H23" s="42">
@@ -6928,26 +6925,26 @@
       <c r="I23" s="43">
         <v>704.895588</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="41">
         <v>643.129973</v>
       </c>
       <c r="K23" s="42">
-        <f>(I23-J23)/I23</f>
+        <f t="shared" si="8"/>
         <v>0.0876237786864968</v>
       </c>
-      <c r="L23" s="87"/>
-      <c r="M23" s="91" t="s">
+      <c r="L23" s="86"/>
+      <c r="M23" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="89">
-        <v>115.620499</v>
-      </c>
-      <c r="O23" s="44">
+      <c r="N23" s="88">
+        <v>115.620501</v>
+      </c>
+      <c r="O23" s="41">
         <v>105.489394</v>
       </c>
       <c r="P23" s="42">
-        <f>(N23-O23)/N23</f>
-        <v>0.0876237785481274</v>
+        <f t="shared" si="6"/>
+        <v>0.0876237943303844</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -6958,46 +6955,46 @@
         <v>15</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="45">
+      <c r="D24" s="44">
         <v>2206.229197</v>
       </c>
-      <c r="E24" s="46">
-        <f>($C$21-D24)/$C$21</f>
+      <c r="E24" s="45">
+        <f t="shared" si="7"/>
         <v>0.3105533759375</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="46">
         <v>1935.55643</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="44">
         <v>1503.446711</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="45">
         <f>($F$24-G24)/$F$21</f>
         <v>0.224155733152554</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="46">
         <v>353.164333</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="44">
         <v>248.782486</v>
       </c>
-      <c r="K24" s="46">
-        <f>(I24-J24)/I24</f>
+      <c r="K24" s="45">
+        <f t="shared" si="8"/>
         <v>0.295561689690788</v>
       </c>
-      <c r="L24" s="87"/>
-      <c r="M24" s="92">
-        <f t="shared" si="7"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="91">
+        <f t="shared" si="9"/>
         <v>0.112763663149001</v>
       </c>
-      <c r="N24" s="93">
+      <c r="N24" s="92">
         <v>57.92778</v>
       </c>
-      <c r="O24" s="94">
+      <c r="O24" s="93">
         <v>40.806547</v>
       </c>
-      <c r="P24" s="46">
-        <f>(N24-O24)/N24</f>
+      <c r="P24" s="45">
+        <f t="shared" si="6"/>
         <v>0.295561697686326</v>
       </c>
     </row>
@@ -7007,44 +7004,44 @@
         <v>16</v>
       </c>
       <c r="C25" s="23"/>
-      <c r="D25" s="45">
+      <c r="D25" s="44">
         <v>2474.214077</v>
       </c>
-      <c r="E25" s="46">
-        <f>($C$21-D25)/$C$21</f>
+      <c r="E25" s="45">
+        <f t="shared" si="7"/>
         <v>0.2268081009375</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="45">
+      <c r="F25" s="46"/>
+      <c r="G25" s="44">
         <v>1615.999378</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="45">
         <f>($F$24-G25)/$F$21</f>
         <v>0.165769345435919</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25" s="46">
         <v>513.938995</v>
       </c>
-      <c r="J25" s="95">
+      <c r="J25" s="94">
         <v>404.214699</v>
       </c>
-      <c r="K25" s="46">
-        <f>(I25-J25)/I25</f>
+      <c r="K25" s="45">
+        <f t="shared" si="8"/>
         <v>0.213496732233755</v>
       </c>
-      <c r="L25" s="87"/>
-      <c r="M25" s="92">
-        <f t="shared" si="7"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="91">
+        <f t="shared" si="9"/>
         <v>0.163370947872915</v>
       </c>
-      <c r="N25" s="93">
+      <c r="N25" s="92">
         <v>84.298844</v>
       </c>
-      <c r="O25" s="94">
+      <c r="O25" s="93">
         <v>66.301316</v>
       </c>
-      <c r="P25" s="46">
-        <f>(N25-O25)/N25</f>
+      <c r="P25" s="45">
+        <f t="shared" si="6"/>
         <v>0.213496735494973</v>
       </c>
     </row>
@@ -7054,43 +7051,43 @@
         <v>17</v>
       </c>
       <c r="C26" s="28"/>
-      <c r="D26" s="48">
+      <c r="D26" s="47">
         <v>2811.886396</v>
       </c>
-      <c r="E26" s="49">
-        <f>($C$21-D26)/$C$21</f>
+      <c r="E26" s="48">
+        <f t="shared" si="7"/>
         <v>0.12128550125</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="48">
+      <c r="F26" s="49"/>
+      <c r="G26" s="47">
         <v>1761.944439</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="48">
         <f>($F$24-G26)/$F$21</f>
         <v>0.0900607447958826</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="49">
         <v>674.713658</v>
       </c>
-      <c r="J26" s="48">
+      <c r="J26" s="47">
         <v>595.941957</v>
       </c>
-      <c r="K26" s="49">
-        <f>(I26-J26)/I26</f>
+      <c r="K26" s="48">
+        <f t="shared" si="8"/>
         <v>0.116748342153761</v>
       </c>
-      <c r="L26" s="96"/>
-      <c r="M26" s="97" t="s">
+      <c r="L26" s="95"/>
+      <c r="M26" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="98">
+      <c r="N26" s="97">
         <v>110.669908</v>
       </c>
-      <c r="O26" s="48">
+      <c r="O26" s="47">
         <v>97.74938</v>
       </c>
-      <c r="P26" s="49">
-        <f>(N26-O26)/N26</f>
+      <c r="P26" s="48">
+        <f t="shared" si="6"/>
         <v>0.116748339575741</v>
       </c>
     </row>

--- a/analysis/cfg-case-study/result-summary/weight-analysis/mtow_iteration_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/weight-analysis/mtow_iteration_1500_3000_ft.xlsx
@@ -1440,13 +1440,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1974.906583</c:v>
+                  <c:v>1996.620209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2207.300397</c:v>
+                  <c:v>2235.493802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2475.500809</c:v>
+                  <c:v>2513.157296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,13 +1559,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1908.813202</c:v>
+                  <c:v>1950.771295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2132.428989</c:v>
+                  <c:v>2187.139554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2391.011895</c:v>
+                  <c:v>2464.598446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,8 +2226,50 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0347826086956522"/>
-                  <c:y val="0.0215373189751207"/>
+                  <c:x val="0"/>
+                  <c:y val="0.0932093023255814"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00277510940335148"/>
+                  <c:y val="0.109953488372093"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0402390863485964"/>
+                  <c:y val="0.0243720930232558"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="t"/>
@@ -2322,13 +2364,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2129.398504</c:v>
+                  <c:v>2162.937494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2401.411534</c:v>
+                  <c:v>2452.940713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2834.127149</c:v>
+                  <c:v>2943.305948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,27 +2404,6 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0279562982005141"/>
-                  <c:y val="-0.00962250185048113"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2409,7 +2430,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2462,13 +2483,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2125.661143</c:v>
+                  <c:v>2198.959553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2420.403092</c:v>
+                  <c:v>2543.509509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2958.038041</c:v>
+                  <c:v>3477.80928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3198,13 +3219,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2261.630792</c:v>
+                  <c:v>2360.896884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2538.028639</c:v>
+                  <c:v>2685.365615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2884.956197</c:v>
+                  <c:v>3102.265746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3359,13 +3380,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2206.229197</c:v>
+                  <c:v>2309.635714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2474.214077</c:v>
+                  <c:v>2630.41992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2811.886396</c:v>
+                  <c:v>3050.592523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3544,13 +3565,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3200</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3200</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3200</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5925,8 +5946,8 @@
   <sheetPr/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6028,48 +6049,48 @@
         <v>3175</v>
       </c>
       <c r="D3" s="14">
-        <v>1974.906583</v>
+        <v>1996.620209</v>
       </c>
       <c r="E3" s="15">
         <f>($C$3-D3)/$C$3</f>
-        <v>0.377982178582677</v>
+        <v>0.371143241259843</v>
       </c>
       <c r="F3" s="13">
         <v>1703.412939</v>
       </c>
       <c r="G3" s="14">
-        <v>1246.775241</v>
+        <v>1254.541359</v>
       </c>
       <c r="H3" s="15">
         <f>($F$3-G3)/$F$3</f>
-        <v>0.268072225791635</v>
+        <v>0.263513074089664</v>
       </c>
       <c r="I3" s="13">
-        <v>379.007417</v>
+        <v>404.979995</v>
       </c>
       <c r="J3" s="14">
-        <v>274.131342</v>
+        <v>288.07885</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" ref="K3:K8" si="0">(I3-J3)/I3</f>
-        <v>0.276712460748492</v>
+        <v>0.288659060801263</v>
       </c>
       <c r="L3" s="59">
         <v>454</v>
       </c>
       <c r="M3" s="60">
         <f>J3/D3</f>
-        <v>0.13880724504122</v>
+        <v>0.144283248612556</v>
       </c>
       <c r="N3" s="61">
-        <v>62.166692</v>
+        <v>66.426844</v>
       </c>
       <c r="O3" s="62">
-        <v>44.964393</v>
+        <v>47.252133</v>
       </c>
       <c r="P3" s="15">
         <f>(N3-O3)/N3</f>
-        <v>0.276712471688215</v>
+        <v>0.28865906981822</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6081,44 +6102,44 @@
         <v>3175</v>
       </c>
       <c r="D4" s="19">
-        <v>2207.300397</v>
+        <v>2235.493802</v>
       </c>
       <c r="E4" s="20">
         <f>($C$3-D4)/$C$3</f>
-        <v>0.304787276535433</v>
+        <v>0.295907463937008</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="19">
-        <v>1330.798408</v>
+        <v>1341.129892</v>
       </c>
       <c r="H4" s="20">
         <f>($F$3-G4)/$F$3</f>
-        <v>0.218745861598742</v>
+        <v>0.212680694566451</v>
       </c>
       <c r="I4" s="18">
-        <v>541.616335</v>
+        <v>567.588913</v>
       </c>
       <c r="J4" s="19">
-        <v>422.501988</v>
+        <v>440.36391</v>
       </c>
       <c r="K4" s="20">
         <f t="shared" si="0"/>
-        <v>0.219923845169847</v>
+        <v>0.224149908650524</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="63">
         <f>J4/D4</f>
-        <v>0.191411186521886</v>
+        <v>0.1969873097416</v>
       </c>
       <c r="N4" s="64">
-        <v>88.83862</v>
+        <v>93.098771</v>
       </c>
       <c r="O4" s="65">
-        <v>69.300889</v>
+        <v>72.23069</v>
       </c>
       <c r="P4" s="20">
         <f>(N4-O4)/N4</f>
-        <v>0.219923846183113</v>
+        <v>0.224149908488051</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6130,44 +6151,44 @@
         <v>3175</v>
       </c>
       <c r="D5" s="19">
-        <v>2475.500809</v>
+        <v>2513.157296</v>
       </c>
       <c r="E5" s="20">
         <f>($C$3-D5)/$C$3</f>
-        <v>0.220314705826772</v>
+        <v>0.20845439496063</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="19">
-        <v>1430.324931</v>
+        <v>1444.524041</v>
       </c>
       <c r="H5" s="20">
         <f>($F$3-G5)/$F$3</f>
-        <v>0.160318148199765</v>
+        <v>0.151982465362734</v>
       </c>
       <c r="I5" s="18">
-        <v>704.225253</v>
+        <v>730.197831</v>
       </c>
       <c r="J5" s="19">
-        <v>591.175878</v>
+        <v>614.633255</v>
       </c>
       <c r="K5" s="20">
         <f t="shared" si="0"/>
-        <v>0.160530135093011</v>
+        <v>0.158264748392549</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="63">
         <f>J5/D5</f>
-        <v>0.238810617977059</v>
+        <v>0.244566170202822</v>
       </c>
       <c r="N5" s="64">
-        <v>115.510548</v>
+        <v>119.770699</v>
       </c>
       <c r="O5" s="65">
-        <v>96.967623</v>
+        <v>100.81522</v>
       </c>
       <c r="P5" s="20">
         <f>(N5-O5)/N5</f>
-        <v>0.160530144831449</v>
+        <v>0.158264743866945</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6179,46 +6200,46 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24">
-        <v>1908.813202</v>
+        <v>1950.771295</v>
       </c>
       <c r="E6" s="25">
         <f>($C$3-D6)/$C$3</f>
-        <v>0.398798991496063</v>
+        <v>0.385583844094488</v>
       </c>
       <c r="F6" s="23">
         <v>1711.972412</v>
       </c>
       <c r="G6" s="24">
-        <v>1225.799357</v>
+        <v>1240.87131</v>
       </c>
       <c r="H6" s="25">
         <f>($F$6-G6)/$F$3</f>
-        <v>0.285411155374581</v>
+        <v>0.27656306419544</v>
       </c>
       <c r="I6" s="23">
-        <v>343.028533</v>
+        <v>394.973689</v>
       </c>
       <c r="J6" s="24">
-        <v>229.013844</v>
+        <v>255.899985</v>
       </c>
       <c r="K6" s="25">
         <f t="shared" si="0"/>
-        <v>0.332376691824642</v>
+        <v>0.352108780592724</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="66">
         <f>J6/D6</f>
-        <v>0.119977085112386</v>
+        <v>0.131178875584183</v>
       </c>
       <c r="N6" s="67">
-        <v>56.265254</v>
+        <v>64.785559</v>
       </c>
       <c r="O6" s="68">
-        <v>37.563996</v>
+        <v>41.973995</v>
       </c>
       <c r="P6" s="25">
         <f>(N6-O6)/N6</f>
-        <v>0.332376674243753</v>
+        <v>0.352108777821922</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6228,44 +6249,44 @@
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="24">
-        <v>2132.428989</v>
+        <v>2187.139554</v>
       </c>
       <c r="E7" s="25">
         <f>($C$3-D7)/$C$3</f>
-        <v>0.328368822362205</v>
+        <v>0.311137148346457</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24">
-        <v>1306.904457</v>
+        <v>1327.044665</v>
       </c>
       <c r="H7" s="25">
         <f>($F$6-G7)/$F$3</f>
-        <v>0.237797862001564</v>
+        <v>0.225974417704009</v>
       </c>
       <c r="I7" s="23">
-        <v>503.763445</v>
+        <v>555.708601</v>
       </c>
       <c r="J7" s="24">
-        <v>371.524532</v>
+        <v>406.094889</v>
       </c>
       <c r="K7" s="25">
         <f t="shared" si="0"/>
-        <v>0.262502002303879</v>
+        <v>0.269230513493528</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="66">
         <f t="shared" ref="M7:M17" si="1">J7/D7</f>
-        <v>0.174225980755507</v>
+        <v>0.185673972315714</v>
       </c>
       <c r="N7" s="67">
-        <v>82.629798</v>
+        <v>91.150103</v>
       </c>
       <c r="O7" s="68">
-        <v>60.939311</v>
+        <v>66.609714</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" ref="P7:P15" si="2">(N7-O7)/N7</f>
-        <v>0.262501997160879</v>
+        <v>0.269230513102108</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -6275,44 +6296,44 @@
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="29">
-        <v>2391.011895</v>
+        <v>2464.598446</v>
       </c>
       <c r="E8" s="30">
         <f>($C$3-D8)/$C$3</f>
-        <v>0.246925387401575</v>
+        <v>0.223748520944882</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="29">
-        <v>1403.153055</v>
+        <v>1431.040073</v>
       </c>
       <c r="H8" s="30">
         <f>($F$6-G8)/$F$3</f>
-        <v>0.18129447647691</v>
+        <v>0.164923215368391</v>
       </c>
       <c r="I8" s="28">
-        <v>664.498356</v>
+        <v>716.443513</v>
       </c>
       <c r="J8" s="29">
-        <v>533.85884</v>
+        <v>579.558373</v>
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>0.196598704602363</v>
+        <v>0.191062013286734</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="69">
         <f t="shared" si="1"/>
-        <v>0.223277366840536</v>
+        <v>0.235153265612341</v>
       </c>
       <c r="N8" s="70">
-        <v>108.994342</v>
+        <v>117.514647</v>
       </c>
       <c r="O8" s="71">
-        <v>87.566196</v>
+        <v>95.062062</v>
       </c>
       <c r="P8" s="30">
         <f t="shared" si="2"/>
-        <v>0.196598700508692</v>
+        <v>0.19106201289104</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:15">
@@ -6417,48 +6438,48 @@
         <v>2404</v>
       </c>
       <c r="D12" s="14">
-        <v>2129.398504</v>
+        <v>2162.937494</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" ref="E12:E17" si="3">($C$12-D12)/$C$12</f>
-        <v>0.114226911813644</v>
+        <v>0.100275584858569</v>
       </c>
       <c r="F12" s="13">
         <v>1591.091189</v>
       </c>
       <c r="G12" s="14">
-        <v>1452.508004</v>
+        <v>1469.137083</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" ref="H12:H17" si="4">($F$12-G12)/$F$12</f>
-        <v>0.0870994610227836</v>
+        <v>0.0766480933607885</v>
       </c>
       <c r="I12" s="13">
-        <v>255.741728</v>
+        <v>271.24277</v>
       </c>
       <c r="J12" s="14">
-        <v>222.890499</v>
+        <v>239.800411</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" ref="K12:K17" si="5">(I12-J12)/I12</f>
-        <v>0.128454708024808</v>
+        <v>0.115919620640948</v>
       </c>
       <c r="L12" s="59">
         <v>454</v>
       </c>
       <c r="M12" s="75">
         <f t="shared" si="1"/>
-        <v>0.104672985625428</v>
+        <v>0.110867933847006</v>
       </c>
       <c r="N12" s="61">
-        <v>41.948037</v>
+        <v>44.490595</v>
       </c>
       <c r="O12" s="62">
-        <v>36.559614</v>
+        <v>39.333262</v>
       </c>
       <c r="P12" s="15">
         <f t="shared" si="2"/>
-        <v>0.128454711718691</v>
+        <v>0.115919623012459</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -6470,44 +6491,44 @@
         <v>2404</v>
       </c>
       <c r="D13" s="19">
-        <v>2401.411534</v>
+        <v>2452.940713</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" si="3"/>
-        <v>0.00107673294509158</v>
+        <v>-0.0203580336938436</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="19">
-        <v>1589.759485</v>
+        <v>1616.371056</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="4"/>
-        <v>0.000836975284136241</v>
+        <v>-0.0158883835035806</v>
       </c>
       <c r="I13" s="18">
-        <v>358.09555</v>
+        <v>373.596592</v>
       </c>
       <c r="J13" s="19">
-        <v>357.652049</v>
+        <v>382.569657</v>
       </c>
       <c r="K13" s="20">
         <f t="shared" si="5"/>
-        <v>0.00123849905423294</v>
+        <v>-0.0240180590298319</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="76">
         <f t="shared" si="1"/>
-        <v>0.148934093109923</v>
+        <v>0.155963678605224</v>
       </c>
       <c r="N13" s="64">
-        <v>58.736625</v>
+        <v>61.279181</v>
       </c>
       <c r="O13" s="65">
-        <v>58.663877</v>
+        <v>62.750988</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="2"/>
-        <v>0.0012385457965962</v>
+        <v>-0.0240180592491926</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -6519,44 +6540,44 @@
         <v>2404</v>
       </c>
       <c r="D14" s="19">
-        <v>2834.127149</v>
+        <v>2943.305948</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="3"/>
-        <v>-0.178921443011647</v>
+        <v>-0.224336916805325</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19">
-        <v>1819.268058</v>
+        <v>1879.331607</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="4"/>
-        <v>-0.143409045677268</v>
+        <v>-0.181158955560026</v>
       </c>
       <c r="I14" s="18">
-        <v>460.449371</v>
+        <v>475.950413</v>
       </c>
       <c r="J14" s="19">
-        <v>560.859091</v>
+        <v>609.974341</v>
       </c>
       <c r="K14" s="20">
         <f t="shared" si="5"/>
-        <v>-0.218068969845547</v>
+        <v>-0.281592208640441</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="76">
         <f t="shared" si="1"/>
-        <v>0.197894823172593</v>
+        <v>0.207241228664822</v>
       </c>
       <c r="N14" s="64">
-        <v>75.525211</v>
+        <v>78.067767</v>
       </c>
       <c r="O14" s="65">
-        <v>91.994912</v>
+        <v>100.051041</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="2"/>
-        <v>-0.218068917410903</v>
+        <v>-0.28159219668727</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6568,46 +6589,46 @@
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24">
-        <v>2125.661143</v>
+        <v>2198.959553</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" si="3"/>
-        <v>0.115781554492513</v>
+        <v>0.0852913673044925</v>
       </c>
       <c r="F15" s="23">
         <v>1598.597648</v>
       </c>
       <c r="G15" s="24">
-        <v>1456.625249</v>
+        <v>1493.444341</v>
       </c>
       <c r="H15" s="25">
         <f>($F$15-G15)/$F$12</f>
-        <v>0.0892295802915165</v>
+        <v>0.0660887997664602</v>
       </c>
       <c r="I15" s="23">
-        <v>253.145236</v>
+        <v>284.14732</v>
       </c>
       <c r="J15" s="24">
-        <v>215.035895</v>
+        <v>251.515212</v>
       </c>
       <c r="K15" s="25">
         <f t="shared" si="5"/>
-        <v>0.150543386090031</v>
+        <v>0.11484221635453</v>
       </c>
       <c r="L15" s="22"/>
       <c r="M15" s="77">
         <f t="shared" si="1"/>
-        <v>0.101161888247397</v>
+        <v>0.114379189765843</v>
       </c>
       <c r="N15" s="67">
-        <v>41.522147</v>
+        <v>46.607264</v>
       </c>
       <c r="O15" s="68">
-        <v>35.271263</v>
+        <v>41.254783</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="2"/>
-        <v>0.150543371468725</v>
+        <v>0.114842205712826</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6617,44 +6638,44 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24">
-        <v>2420.403092</v>
+        <v>2543.509509</v>
       </c>
       <c r="E16" s="25">
         <f t="shared" si="3"/>
-        <v>-0.00682324958402663</v>
+        <v>-0.0580322416805324</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="24">
-        <v>1607.146779</v>
+        <v>1671.959828</v>
       </c>
       <c r="H16" s="25">
         <f>($F$15-G16)/$F$12</f>
-        <v>-0.00537312446898352</v>
+        <v>-0.0461080926770188</v>
       </c>
       <c r="I16" s="23">
-        <v>356.092953</v>
+        <v>387.095037</v>
       </c>
       <c r="J16" s="24">
-        <v>359.256313</v>
+        <v>417.549681</v>
       </c>
       <c r="K16" s="25">
         <f t="shared" si="5"/>
-        <v>-0.0088835231737932</v>
+        <v>-0.0786748500730585</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="77">
         <f t="shared" si="1"/>
-        <v>0.148428298652991</v>
+        <v>0.164162815009157</v>
       </c>
       <c r="N16" s="67">
-        <v>58.408147</v>
+        <v>63.493263</v>
       </c>
       <c r="O16" s="68">
-        <v>58.927017</v>
+        <v>68.488586</v>
       </c>
       <c r="P16" s="25">
         <f t="shared" ref="P16:P26" si="6">(N16-O16)/N16</f>
-        <v>-0.00888352099237115</v>
+        <v>-0.078674850905048</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -6664,44 +6685,44 @@
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="29">
-        <v>2958.038041</v>
+        <v>3477.80928</v>
       </c>
       <c r="E17" s="30">
         <f t="shared" si="3"/>
-        <v>-0.230465075291181</v>
+        <v>-0.446676073211314</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="29">
-        <v>1898.586616</v>
+        <v>2200.864315</v>
       </c>
       <c r="H17" s="30">
         <f>($F$15-G17)/$F$12</f>
-        <v>-0.188542913237137</v>
+        <v>-0.378524292739327</v>
       </c>
       <c r="I17" s="28">
-        <v>459.04067</v>
+        <v>490.042754</v>
       </c>
       <c r="J17" s="29">
-        <v>605.451425</v>
+        <v>822.944966</v>
       </c>
       <c r="K17" s="30">
         <f t="shared" si="5"/>
-        <v>-0.318949419013352</v>
+        <v>-0.679332995504307</v>
       </c>
       <c r="L17" s="27"/>
       <c r="M17" s="78">
         <f t="shared" si="1"/>
-        <v>0.204680067195931</v>
+        <v>0.236627399533536</v>
       </c>
       <c r="N17" s="70">
-        <v>75.294146</v>
+        <v>80.379263</v>
       </c>
       <c r="O17" s="71">
-        <v>99.30917</v>
+        <v>134.983548</v>
       </c>
       <c r="P17" s="30">
         <f t="shared" si="6"/>
-        <v>-0.31894941739561</v>
+        <v>-0.679332989156669</v>
       </c>
     </row>
     <row r="18" ht="50" customHeight="1" spans="3:15">
@@ -6803,51 +6824,51 @@
         <v>15</v>
       </c>
       <c r="C21" s="13">
-        <v>3200</v>
+        <v>3350</v>
       </c>
       <c r="D21" s="38">
-        <v>2261.630792</v>
+        <v>2360.896884</v>
       </c>
       <c r="E21" s="39">
         <f t="shared" ref="E21:E26" si="7">($C$21-D21)/$C$21</f>
-        <v>0.2932403775</v>
+        <v>0.295254661492537</v>
       </c>
       <c r="F21" s="40">
-        <v>1927.721022</v>
+        <v>2002.776476</v>
       </c>
       <c r="G21" s="38">
-        <v>1522.728856</v>
+        <v>1576.398921</v>
       </c>
       <c r="H21" s="39">
         <f>($F$21-G21)/$F$21</f>
-        <v>0.210088576810675</v>
+        <v>0.212893231026746</v>
       </c>
       <c r="I21" s="40">
-        <v>381.922397</v>
+        <v>443.464808</v>
       </c>
       <c r="J21" s="38">
-        <v>284.901936</v>
+        <v>330.497964</v>
       </c>
       <c r="K21" s="39">
         <f t="shared" ref="K21:K26" si="8">(I21-J21)/I21</f>
-        <v>0.254031870772952</v>
+        <v>0.254736885457662</v>
       </c>
       <c r="L21" s="82">
         <v>454</v>
       </c>
       <c r="M21" s="83">
         <f t="shared" ref="M21:M26" si="9">J21/D21</f>
-        <v>0.125971903551975</v>
+        <v>0.139988309629198</v>
       </c>
       <c r="N21" s="84">
-        <v>62.644821</v>
+        <v>72.739315</v>
       </c>
       <c r="O21" s="85">
-        <v>46.73104</v>
+        <v>54.209928</v>
       </c>
       <c r="P21" s="39">
         <f t="shared" si="6"/>
-        <v>0.25403186960978</v>
+        <v>0.254736891597068</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -6856,47 +6877,47 @@
         <v>16</v>
       </c>
       <c r="C22" s="18">
-        <v>3200</v>
+        <v>3350</v>
       </c>
       <c r="D22" s="41">
-        <v>2538.028639</v>
+        <v>2685.365615</v>
       </c>
       <c r="E22" s="42">
         <f t="shared" si="7"/>
-        <v>0.2068660503125</v>
+        <v>0.198398323880597</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="41">
-        <v>1638.401895</v>
+        <v>1712.334702</v>
       </c>
       <c r="H22" s="42">
         <f>($F$21-G22)/$F$21</f>
-        <v>0.150083504665957</v>
+        <v>0.145019565328667</v>
       </c>
       <c r="I22" s="43">
-        <v>543.408993</v>
+        <v>625.861069</v>
       </c>
       <c r="J22" s="41">
-        <v>445.626745</v>
+        <v>519.030913</v>
       </c>
       <c r="K22" s="42">
         <f t="shared" si="8"/>
-        <v>0.179942270480606</v>
+        <v>0.170693083963016</v>
       </c>
       <c r="L22" s="86"/>
       <c r="M22" s="87">
         <f t="shared" si="9"/>
-        <v>0.175579872564235</v>
+        <v>0.193281283599068</v>
       </c>
       <c r="N22" s="88">
-        <v>89.132662</v>
+        <v>102.656862</v>
       </c>
       <c r="O22" s="89">
-        <v>73.093927</v>
+        <v>85.134046</v>
       </c>
       <c r="P22" s="42">
         <f t="shared" si="6"/>
-        <v>0.179942286476309</v>
+        <v>0.170693080409958</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:16">
@@ -6905,46 +6926,46 @@
         <v>17</v>
       </c>
       <c r="C23" s="18">
-        <v>3200</v>
+        <v>3350</v>
       </c>
       <c r="D23" s="41">
-        <v>2884.956197</v>
+        <v>3102.265746</v>
       </c>
       <c r="E23" s="42">
         <f t="shared" si="7"/>
-        <v>0.0984511884375</v>
+        <v>0.0739505235820895</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="41">
-        <v>1787.826224</v>
+        <v>1892.587948</v>
       </c>
       <c r="H23" s="42">
         <f>($F$21-G23)/$F$21</f>
-        <v>0.0725700432808789</v>
+        <v>0.0550178860798642</v>
       </c>
       <c r="I23" s="43">
-        <v>704.895588</v>
+        <v>808.25733</v>
       </c>
       <c r="J23" s="41">
-        <v>643.129973</v>
+        <v>755.677798</v>
       </c>
       <c r="K23" s="42">
         <f t="shared" si="8"/>
-        <v>0.0876237786864968</v>
+        <v>0.0650529602991661</v>
       </c>
       <c r="L23" s="86"/>
       <c r="M23" s="90" t="s">
         <v>21</v>
       </c>
       <c r="N23" s="88">
-        <v>115.620501</v>
+        <v>132.574409</v>
       </c>
       <c r="O23" s="41">
-        <v>105.489394</v>
+        <v>123.950051</v>
       </c>
       <c r="P23" s="42">
         <f t="shared" si="6"/>
-        <v>0.0876237943303844</v>
+        <v>0.0650529620690219</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -6956,46 +6977,46 @@
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="44">
-        <v>2206.229197</v>
+        <v>2309.635714</v>
       </c>
       <c r="E24" s="45">
         <f t="shared" si="7"/>
-        <v>0.3105533759375</v>
+        <v>0.310556503283582</v>
       </c>
       <c r="F24" s="46">
-        <v>1935.55643</v>
+        <v>2011.368198</v>
       </c>
       <c r="G24" s="44">
-        <v>1503.446711</v>
+        <v>1559.331411</v>
       </c>
       <c r="H24" s="45">
         <f>($F$24-G24)/$F$21</f>
-        <v>0.224155733152554</v>
+        <v>0.225705061157309</v>
       </c>
       <c r="I24" s="46">
-        <v>353.164333</v>
+        <v>426.287935</v>
       </c>
       <c r="J24" s="44">
-        <v>248.782486</v>
+        <v>296.304304</v>
       </c>
       <c r="K24" s="45">
         <f t="shared" si="8"/>
-        <v>0.295561689690788</v>
+        <v>0.304919797929538</v>
       </c>
       <c r="L24" s="86"/>
       <c r="M24" s="91">
         <f t="shared" si="9"/>
-        <v>0.112763663149001</v>
+        <v>0.128290492827043</v>
       </c>
       <c r="N24" s="92">
-        <v>57.92778</v>
+        <v>69.921879</v>
       </c>
       <c r="O24" s="93">
-        <v>40.806547</v>
+        <v>48.601313</v>
       </c>
       <c r="P24" s="45">
         <f t="shared" si="6"/>
-        <v>0.295561697686326</v>
+        <v>0.304919809148722</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -7005,44 +7026,44 @@
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="44">
-        <v>2474.214077</v>
+        <v>2630.41992</v>
       </c>
       <c r="E25" s="45">
         <f t="shared" si="7"/>
-        <v>0.2268081009375</v>
+        <v>0.214800023880597</v>
       </c>
       <c r="F25" s="46"/>
       <c r="G25" s="44">
-        <v>1615.999378</v>
+        <v>1694.357505</v>
       </c>
       <c r="H25" s="45">
         <f>($F$24-G25)/$F$21</f>
-        <v>0.165769345435919</v>
+        <v>0.158285608403561</v>
       </c>
       <c r="I25" s="46">
-        <v>513.938995</v>
+        <v>607.529058</v>
       </c>
       <c r="J25" s="94">
-        <v>404.214699</v>
+        <v>482.062414</v>
       </c>
       <c r="K25" s="45">
         <f t="shared" si="8"/>
-        <v>0.213496732233755</v>
+        <v>0.206519576879235</v>
       </c>
       <c r="L25" s="86"/>
       <c r="M25" s="91">
         <f t="shared" si="9"/>
-        <v>0.163370947872915</v>
+        <v>0.183264432547333</v>
       </c>
       <c r="N25" s="92">
-        <v>84.298844</v>
+        <v>99.649954</v>
       </c>
       <c r="O25" s="93">
-        <v>66.301316</v>
+        <v>79.070288</v>
       </c>
       <c r="P25" s="45">
         <f t="shared" si="6"/>
-        <v>0.213496735494973</v>
+        <v>0.206519573506276</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -7052,43 +7073,43 @@
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="47">
-        <v>2811.886396</v>
+        <v>3050.592523</v>
       </c>
       <c r="E26" s="48">
         <f t="shared" si="7"/>
-        <v>0.12128550125</v>
+        <v>0.0893753662686568</v>
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="47">
-        <v>1761.944439</v>
+        <v>1877.031479</v>
       </c>
       <c r="H26" s="48">
         <f>($F$24-G26)/$F$21</f>
-        <v>0.0900607447958826</v>
+        <v>0.0670752430986711</v>
       </c>
       <c r="I26" s="49">
-        <v>674.713658</v>
+        <v>788.77018</v>
       </c>
       <c r="J26" s="47">
-        <v>595.941957</v>
+        <v>719.561044</v>
       </c>
       <c r="K26" s="48">
         <f t="shared" si="8"/>
-        <v>0.116748342153761</v>
+        <v>0.0877430939389721</v>
       </c>
       <c r="L26" s="95"/>
       <c r="M26" s="96" t="s">
         <v>21</v>
       </c>
       <c r="N26" s="97">
-        <v>110.669908</v>
+        <v>129.378029</v>
       </c>
       <c r="O26" s="47">
-        <v>97.74938</v>
+        <v>118.026</v>
       </c>
       <c r="P26" s="48">
         <f t="shared" si="6"/>
-        <v>0.116748339575741</v>
+        <v>0.0877430974002549</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/cfg-case-study/result-summary/weight-analysis/mtow_iteration_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/weight-analysis/mtow_iteration_1500_3000_ft.xlsx
@@ -5947,7 +5947,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/analysis/cfg-case-study/result-summary/weight-analysis/mtow_iteration_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/weight-analysis/mtow_iteration_1500_3000_ft.xlsx
@@ -1440,13 +1440,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1996.620209</c:v>
+                  <c:v>1995.738502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2235.493802</c:v>
+                  <c:v>2231.68832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2513.157296</c:v>
+                  <c:v>2504.770182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,13 +1559,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1950.771295</c:v>
+                  <c:v>1950.080367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2187.139554</c:v>
+                  <c:v>2180.475032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2464.598446</c:v>
+                  <c:v>2448.381243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2364,13 +2364,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2162.937494</c:v>
+                  <c:v>2159.144378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2452.940713</c:v>
+                  <c:v>2442.19525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2943.305948</c:v>
+                  <c:v>2908.644764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,13 +2483,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2198.959553</c:v>
+                  <c:v>2190.733039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2543.509509</c:v>
+                  <c:v>2515.541883</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3477.80928</c:v>
+                  <c:v>3217.176714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,13 +3219,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2360.896884</c:v>
+                  <c:v>2357.661753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2685.365615</c:v>
+                  <c:v>2675.582315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3102.265746</c:v>
+                  <c:v>3080.300227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,13 +3380,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2309.635714</c:v>
+                  <c:v>2305.625833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2630.41992</c:v>
+                  <c:v>2613.419412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3050.592523</c:v>
+                  <c:v>3007.956127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,12 +5642,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.788623214237596</cdr:x>
-      <cdr:y>0.33717611758958</cdr:y>
+      <cdr:x>0.781875142258161</cdr:x>
+      <cdr:y>0.39708736019313</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.998862048981089</cdr:x>
-      <cdr:y>0.398005610677138</cdr:y>
+      <cdr:x>0.992113977001655</cdr:x>
+      <cdr:y>0.457916853280688</cdr:y>
     </cdr:to>
     <cdr:sp>
       <cdr:nvSpPr>
@@ -5656,8 +5656,8 @@
       </cdr:nvSpPr>
       <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4675242" y="1157033"/>
-          <a:ext cx="1246371" cy="208739"/>
+          <a:off x="4635237" y="1363630"/>
+          <a:ext cx="1246371" cy="208893"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5946,8 +5946,8 @@
   <sheetPr/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6049,48 +6049,48 @@
         <v>3175</v>
       </c>
       <c r="D3" s="14">
-        <v>1996.620209</v>
+        <v>1995.738502</v>
       </c>
       <c r="E3" s="15">
         <f>($C$3-D3)/$C$3</f>
-        <v>0.371143241259843</v>
+        <v>0.371420944251969</v>
       </c>
       <c r="F3" s="13">
-        <v>1703.412939</v>
+        <v>1702.792913</v>
       </c>
       <c r="G3" s="14">
-        <v>1254.541359</v>
+        <v>1255.427476</v>
       </c>
       <c r="H3" s="15">
         <f>($F$3-G3)/$F$3</f>
-        <v>0.263513074089664</v>
+        <v>0.262724511938346</v>
       </c>
       <c r="I3" s="13">
-        <v>404.979995</v>
+        <v>401.98539</v>
       </c>
       <c r="J3" s="14">
-        <v>288.07885</v>
+        <v>286.311026</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" ref="K3:K8" si="0">(I3-J3)/I3</f>
-        <v>0.288659060801263</v>
+        <v>0.287757632186583</v>
       </c>
       <c r="L3" s="59">
         <v>454</v>
       </c>
       <c r="M3" s="60">
         <f>J3/D3</f>
-        <v>0.144283248612556</v>
+        <v>0.143461192793083</v>
       </c>
       <c r="N3" s="61">
-        <v>66.426844</v>
+        <v>65.935654</v>
       </c>
       <c r="O3" s="62">
-        <v>47.252133</v>
+        <v>46.962166</v>
       </c>
       <c r="P3" s="15">
         <f>(N3-O3)/N3</f>
-        <v>0.28865906981822</v>
+        <v>0.28775763716547</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6102,44 +6102,44 @@
         <v>3175</v>
       </c>
       <c r="D4" s="19">
-        <v>2235.493802</v>
+        <v>2231.68832</v>
       </c>
       <c r="E4" s="20">
         <f>($C$3-D4)/$C$3</f>
-        <v>0.295907463937008</v>
+        <v>0.297106040944882</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="19">
-        <v>1341.129892</v>
+        <v>1340.700529</v>
       </c>
       <c r="H4" s="20">
         <f>($F$3-G4)/$F$3</f>
-        <v>0.212680694566451</v>
+        <v>0.212646165740766</v>
       </c>
       <c r="I4" s="18">
-        <v>567.588913</v>
+        <v>563.080651</v>
       </c>
       <c r="J4" s="19">
-        <v>440.36391</v>
+        <v>436.987791</v>
       </c>
       <c r="K4" s="20">
         <f t="shared" si="0"/>
-        <v>0.224149908650524</v>
+        <v>0.223933924520521</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="63">
         <f>J4/D4</f>
-        <v>0.1969873097416</v>
+        <v>0.195810403757457</v>
       </c>
       <c r="N4" s="64">
-        <v>93.098771</v>
+        <v>92.359304</v>
       </c>
       <c r="O4" s="65">
-        <v>72.23069</v>
+        <v>71.676922</v>
       </c>
       <c r="P4" s="20">
         <f>(N4-O4)/N4</f>
-        <v>0.224149908488051</v>
+        <v>0.223933930900995</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6151,44 +6151,44 @@
         <v>3175</v>
       </c>
       <c r="D5" s="19">
-        <v>2513.157296</v>
+        <v>2504.770182</v>
       </c>
       <c r="E5" s="20">
         <f>($C$3-D5)/$C$3</f>
-        <v>0.20845439496063</v>
+        <v>0.211096005669291</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="19">
-        <v>1444.524041</v>
+        <v>1441.972156</v>
       </c>
       <c r="H5" s="20">
         <f>($F$3-G5)/$F$3</f>
-        <v>0.151982465362734</v>
+        <v>0.153172329417605</v>
       </c>
       <c r="I5" s="18">
-        <v>730.197831</v>
+        <v>724.175911</v>
       </c>
       <c r="J5" s="19">
-        <v>614.633255</v>
+        <v>608.798026</v>
       </c>
       <c r="K5" s="20">
         <f t="shared" si="0"/>
-        <v>0.158264748392549</v>
+        <v>0.159323008743383</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="63">
         <f>J5/D5</f>
-        <v>0.244566170202822</v>
+        <v>0.243055442920471</v>
       </c>
       <c r="N5" s="64">
-        <v>119.770699</v>
+        <v>118.782954</v>
       </c>
       <c r="O5" s="65">
-        <v>100.81522</v>
+        <v>99.858096</v>
       </c>
       <c r="P5" s="20">
         <f>(N5-O5)/N5</f>
-        <v>0.158264743866945</v>
+        <v>0.159323011953382</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6200,46 +6200,46 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24">
-        <v>1950.771295</v>
+        <v>1950.080367</v>
       </c>
       <c r="E6" s="25">
         <f>($C$3-D6)/$C$3</f>
-        <v>0.385583844094488</v>
+        <v>0.385801459212598</v>
       </c>
       <c r="F6" s="23">
-        <v>1711.972412</v>
+        <v>1710.074299</v>
       </c>
       <c r="G6" s="24">
-        <v>1240.87131</v>
+        <v>1243.069238</v>
       </c>
       <c r="H6" s="25">
         <f>($F$6-G6)/$F$3</f>
-        <v>0.27656306419544</v>
+        <v>0.274258283220844</v>
       </c>
       <c r="I6" s="23">
-        <v>394.973689</v>
+        <v>389.736768</v>
       </c>
       <c r="J6" s="24">
-        <v>255.899985</v>
+        <v>253.011129</v>
       </c>
       <c r="K6" s="25">
         <f t="shared" si="0"/>
-        <v>0.352108780592724</v>
+        <v>0.350815345705335</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="66">
         <f>J6/D6</f>
-        <v>0.131178875584183</v>
+        <v>0.129743949675896</v>
       </c>
       <c r="N6" s="67">
-        <v>64.785559</v>
+        <v>63.926573</v>
       </c>
       <c r="O6" s="68">
-        <v>41.973995</v>
+        <v>41.50015</v>
       </c>
       <c r="P6" s="25">
         <f>(N6-O6)/N6</f>
-        <v>0.352108777821922</v>
+        <v>0.350815348728298</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6249,44 +6249,44 @@
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="24">
-        <v>2187.139554</v>
+        <v>2180.475032</v>
       </c>
       <c r="E7" s="25">
         <f>($C$3-D7)/$C$3</f>
-        <v>0.311137148346457</v>
+        <v>0.313236210393701</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24">
-        <v>1327.044665</v>
+        <v>1326.516017</v>
       </c>
       <c r="H7" s="25">
         <f>($F$6-G7)/$F$3</f>
-        <v>0.225974417704009</v>
+        <v>0.225252453819674</v>
       </c>
       <c r="I7" s="23">
-        <v>555.708601</v>
+        <v>547.273587</v>
       </c>
       <c r="J7" s="24">
-        <v>406.094889</v>
+        <v>399.959014</v>
       </c>
       <c r="K7" s="25">
         <f t="shared" si="0"/>
-        <v>0.269230513493528</v>
+        <v>0.269179029464106</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="66">
         <f t="shared" ref="M7:M17" si="1">J7/D7</f>
-        <v>0.185673972315714</v>
+        <v>0.183427467928007</v>
       </c>
       <c r="N7" s="67">
-        <v>91.150103</v>
+        <v>89.76655</v>
       </c>
       <c r="O7" s="68">
-        <v>66.609714</v>
+        <v>65.603277</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" ref="P7:P15" si="2">(N7-O7)/N7</f>
-        <v>0.269230513102108</v>
+        <v>0.269179031610327</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -6296,44 +6296,44 @@
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="29">
-        <v>2464.598446</v>
+        <v>2448.381243</v>
       </c>
       <c r="E8" s="30">
         <f>($C$3-D8)/$C$3</f>
-        <v>0.223748520944882</v>
+        <v>0.228856301417323</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="29">
-        <v>1431.040073</v>
+        <v>1426.034066</v>
       </c>
       <c r="H8" s="30">
         <f>($F$6-G8)/$F$3</f>
-        <v>0.164923215368391</v>
+        <v>0.166808442078594</v>
       </c>
       <c r="I8" s="28">
-        <v>716.443513</v>
+        <v>704.810406</v>
       </c>
       <c r="J8" s="29">
-        <v>579.558373</v>
+        <v>568.347177</v>
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>0.191062013286734</v>
+        <v>0.193616932778373</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="69">
         <f t="shared" si="1"/>
-        <v>0.235153265612341</v>
+        <v>0.232131813060128</v>
       </c>
       <c r="N8" s="70">
-        <v>117.514647</v>
+        <v>115.606527</v>
       </c>
       <c r="O8" s="71">
-        <v>95.062062</v>
+        <v>93.223146</v>
       </c>
       <c r="P8" s="30">
         <f t="shared" si="2"/>
-        <v>0.19106201289104</v>
+        <v>0.193616931334681</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:15">
@@ -6438,48 +6438,48 @@
         <v>2404</v>
       </c>
       <c r="D12" s="14">
-        <v>2162.937494</v>
+        <v>2159.144378</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" ref="E12:E17" si="3">($C$12-D12)/$C$12</f>
-        <v>0.100275584858569</v>
+        <v>0.101853420133111</v>
       </c>
       <c r="F12" s="13">
-        <v>1591.091189</v>
+        <v>1590.989629</v>
       </c>
       <c r="G12" s="14">
-        <v>1469.137083</v>
+        <v>1467.537826</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" ref="H12:H17" si="4">($F$12-G12)/$F$12</f>
-        <v>0.0766480933607885</v>
+        <v>0.0775943480395873</v>
       </c>
       <c r="I12" s="13">
-        <v>271.24277</v>
+        <v>269.272137</v>
       </c>
       <c r="J12" s="14">
-        <v>239.800411</v>
+        <v>237.606551</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" ref="K12:K17" si="5">(I12-J12)/I12</f>
-        <v>0.115919620640948</v>
+        <v>0.117596964739059</v>
       </c>
       <c r="L12" s="59">
         <v>454</v>
       </c>
       <c r="M12" s="75">
         <f t="shared" si="1"/>
-        <v>0.110867933847006</v>
+        <v>0.110046624681992</v>
       </c>
       <c r="N12" s="61">
-        <v>44.490595</v>
+        <v>44.167362</v>
       </c>
       <c r="O12" s="62">
-        <v>39.333262</v>
+        <v>38.973415</v>
       </c>
       <c r="P12" s="15">
         <f t="shared" si="2"/>
-        <v>0.115919623012459</v>
+        <v>0.117596948624643</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -6491,44 +6491,44 @@
         <v>2404</v>
       </c>
       <c r="D13" s="19">
-        <v>2452.940713</v>
+        <v>2442.19525</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" si="3"/>
-        <v>-0.0203580336938436</v>
+        <v>-0.0158882071547422</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="19">
-        <v>1616.371056</v>
+        <v>1610.636345</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="4"/>
-        <v>-0.0158883835035806</v>
+        <v>-0.0123487392009895</v>
       </c>
       <c r="I13" s="18">
-        <v>373.596592</v>
+        <v>370.628415</v>
       </c>
       <c r="J13" s="19">
-        <v>382.569657</v>
+        <v>377.558905</v>
       </c>
       <c r="K13" s="20">
         <f t="shared" si="5"/>
-        <v>-0.0240180590298319</v>
+        <v>-0.0186992948179647</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="76">
         <f t="shared" si="1"/>
-        <v>0.155963678605224</v>
+        <v>0.154598165318682</v>
       </c>
       <c r="N13" s="64">
-        <v>61.279181</v>
+        <v>60.792326</v>
       </c>
       <c r="O13" s="65">
-        <v>62.750988</v>
+        <v>61.929099</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="2"/>
-        <v>-0.0240180592491926</v>
+        <v>-0.0186992845116668</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -6540,44 +6540,44 @@
         <v>2404</v>
       </c>
       <c r="D14" s="19">
-        <v>2943.305948</v>
+        <v>2908.644764</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="3"/>
-        <v>-0.224336916805325</v>
+        <v>-0.209918787021631</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19">
-        <v>1879.331607</v>
+        <v>1859.014144</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="4"/>
-        <v>-0.181158955560026</v>
+        <v>-0.168464023972591</v>
       </c>
       <c r="I14" s="18">
-        <v>475.950413</v>
+        <v>471.984692</v>
       </c>
       <c r="J14" s="19">
-        <v>609.974341</v>
+        <v>595.63062</v>
       </c>
       <c r="K14" s="20">
         <f t="shared" si="5"/>
-        <v>-0.281592208640441</v>
+        <v>-0.261970208135479</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="76">
         <f t="shared" si="1"/>
-        <v>0.207241228664822</v>
+        <v>0.204779431084902</v>
       </c>
       <c r="N14" s="64">
-        <v>78.067767</v>
+        <v>77.417289</v>
       </c>
       <c r="O14" s="65">
-        <v>100.051041</v>
+        <v>97.698312</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="2"/>
-        <v>-0.28159219668727</v>
+        <v>-0.261970204097434</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6589,46 +6589,46 @@
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24">
-        <v>2198.959553</v>
+        <v>2190.733039</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" si="3"/>
-        <v>0.0852913673044925</v>
+        <v>0.0887133781198002</v>
       </c>
       <c r="F15" s="23">
-        <v>1598.597648</v>
+        <v>1598.032431</v>
       </c>
       <c r="G15" s="24">
-        <v>1493.444341</v>
+        <v>1489.521117</v>
       </c>
       <c r="H15" s="25">
         <f>($F$15-G15)/$F$12</f>
-        <v>0.0660887997664602</v>
+        <v>0.0682036589190111</v>
       </c>
       <c r="I15" s="23">
-        <v>284.14732</v>
+        <v>280.707372</v>
       </c>
       <c r="J15" s="24">
-        <v>251.515212</v>
+        <v>247.211921</v>
       </c>
       <c r="K15" s="25">
         <f t="shared" si="5"/>
-        <v>0.11484221635453</v>
+        <v>0.119325156162981</v>
       </c>
       <c r="L15" s="22"/>
       <c r="M15" s="77">
         <f t="shared" si="1"/>
-        <v>0.114379189765843</v>
+        <v>0.112844384322083</v>
       </c>
       <c r="N15" s="67">
-        <v>46.607264</v>
+        <v>46.043027</v>
       </c>
       <c r="O15" s="68">
-        <v>41.254783</v>
+        <v>40.548935</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="2"/>
-        <v>0.114842205712826</v>
+        <v>0.119325169476803</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6638,44 +6638,44 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24">
-        <v>2543.509509</v>
+        <v>2515.541883</v>
       </c>
       <c r="E16" s="25">
         <f t="shared" si="3"/>
-        <v>-0.0580322416805324</v>
+        <v>-0.046398453826955</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="24">
-        <v>1671.959828</v>
+        <v>1656.099411</v>
       </c>
       <c r="H16" s="25">
         <f>($F$15-G16)/$F$12</f>
-        <v>-0.0461080926770188</v>
+        <v>-0.0364973969292919</v>
       </c>
       <c r="I16" s="23">
-        <v>387.095037</v>
+        <v>381.547035</v>
       </c>
       <c r="J16" s="24">
-        <v>417.549681</v>
+        <v>405.442472</v>
       </c>
       <c r="K16" s="25">
         <f t="shared" si="5"/>
-        <v>-0.0786748500730585</v>
+        <v>-0.0626277622626527</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="77">
         <f t="shared" si="1"/>
-        <v>0.164162815009157</v>
+        <v>0.16117500358073</v>
       </c>
       <c r="N16" s="67">
-        <v>63.493263</v>
+        <v>62.583252</v>
       </c>
       <c r="O16" s="68">
-        <v>68.488586</v>
+        <v>66.502702</v>
       </c>
       <c r="P16" s="25">
         <f t="shared" ref="P16:P26" si="6">(N16-O16)/N16</f>
-        <v>-0.078674850905048</v>
+        <v>-0.0626277777958869</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -6685,44 +6685,44 @@
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="29">
-        <v>3477.80928</v>
+        <v>3217.176714</v>
       </c>
       <c r="E17" s="30">
         <f t="shared" si="3"/>
-        <v>-0.446676073211314</v>
+        <v>-0.338259864392679</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="29">
-        <v>2200.864315</v>
+        <v>2041.896721</v>
       </c>
       <c r="H17" s="30">
         <f>($F$15-G17)/$F$12</f>
-        <v>-0.378524292739327</v>
+        <v>-0.278986287471268</v>
       </c>
       <c r="I17" s="28">
-        <v>490.042754</v>
+        <v>482.386697</v>
       </c>
       <c r="J17" s="29">
-        <v>822.944966</v>
+        <v>721.279993</v>
       </c>
       <c r="K17" s="30">
         <f t="shared" si="5"/>
-        <v>-0.679332995504307</v>
+        <v>-0.495231932152557</v>
       </c>
       <c r="L17" s="27"/>
       <c r="M17" s="78">
         <f t="shared" si="1"/>
-        <v>0.236627399533536</v>
+        <v>0.224196572684754</v>
       </c>
       <c r="N17" s="70">
-        <v>80.379263</v>
+        <v>79.123478</v>
       </c>
       <c r="O17" s="71">
-        <v>134.983548</v>
+        <v>118.307951</v>
       </c>
       <c r="P17" s="30">
         <f t="shared" si="6"/>
-        <v>-0.679332989156669</v>
+        <v>-0.495231933560858</v>
       </c>
     </row>
     <row r="18" ht="50" customHeight="1" spans="3:15">
@@ -6827,48 +6827,48 @@
         <v>3350</v>
       </c>
       <c r="D21" s="38">
-        <v>2360.896884</v>
+        <v>2357.661753</v>
       </c>
       <c r="E21" s="39">
         <f t="shared" ref="E21:E26" si="7">($C$21-D21)/$C$21</f>
-        <v>0.295254661492537</v>
+        <v>0.296220372238806</v>
       </c>
       <c r="F21" s="40">
-        <v>2002.776476</v>
+        <v>2003.143456</v>
       </c>
       <c r="G21" s="38">
-        <v>1576.398921</v>
+        <v>1576.579881</v>
       </c>
       <c r="H21" s="39">
         <f>($F$21-G21)/$F$21</f>
-        <v>0.212893231026746</v>
+        <v>0.212947092592055</v>
       </c>
       <c r="I21" s="40">
-        <v>443.464808</v>
+        <v>438.831743</v>
       </c>
       <c r="J21" s="38">
-        <v>330.497964</v>
+        <v>327.081872</v>
       </c>
       <c r="K21" s="39">
         <f t="shared" ref="K21:K26" si="8">(I21-J21)/I21</f>
-        <v>0.254736885457662</v>
+        <v>0.254653116559073</v>
       </c>
       <c r="L21" s="82">
         <v>454</v>
       </c>
       <c r="M21" s="83">
         <f t="shared" ref="M21:M26" si="9">J21/D21</f>
-        <v>0.139988309629198</v>
+        <v>0.138731466285953</v>
       </c>
       <c r="N21" s="84">
-        <v>72.739315</v>
+        <v>71.979377</v>
       </c>
       <c r="O21" s="85">
-        <v>54.209928</v>
+        <v>53.649604</v>
       </c>
       <c r="P21" s="39">
         <f t="shared" si="6"/>
-        <v>0.254736891597068</v>
+        <v>0.254653120990475</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -6880,44 +6880,44 @@
         <v>3350</v>
       </c>
       <c r="D22" s="41">
-        <v>2685.365615</v>
+        <v>2675.582315</v>
       </c>
       <c r="E22" s="42">
         <f t="shared" si="7"/>
-        <v>0.198398323880597</v>
+        <v>0.201318711940298</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="41">
-        <v>1712.334702</v>
+        <v>1709.426966</v>
       </c>
       <c r="H22" s="42">
         <f>($F$21-G22)/$F$21</f>
-        <v>0.145019565328667</v>
+        <v>0.146627786003161</v>
       </c>
       <c r="I22" s="43">
-        <v>625.861069</v>
+        <v>618.834987</v>
       </c>
       <c r="J22" s="41">
-        <v>519.030913</v>
+        <v>512.155349</v>
       </c>
       <c r="K22" s="42">
         <f t="shared" si="8"/>
-        <v>0.170693083963016</v>
+        <v>0.172387858219141</v>
       </c>
       <c r="L22" s="86"/>
       <c r="M22" s="87">
         <f t="shared" si="9"/>
-        <v>0.193281283599068</v>
+        <v>0.191418274118769</v>
       </c>
       <c r="N22" s="88">
-        <v>102.656862</v>
+        <v>101.504409</v>
       </c>
       <c r="O22" s="89">
-        <v>85.134046</v>
+        <v>84.006281</v>
       </c>
       <c r="P22" s="42">
         <f t="shared" si="6"/>
-        <v>0.170693080409958</v>
+        <v>0.172387861496736</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:16">
@@ -6929,43 +6929,43 @@
         <v>3350</v>
       </c>
       <c r="D23" s="41">
-        <v>3102.265746</v>
+        <v>3080.300227</v>
       </c>
       <c r="E23" s="42">
         <f t="shared" si="7"/>
-        <v>0.0739505235820895</v>
+        <v>0.0805073949253731</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="41">
-        <v>1892.587948</v>
+        <v>1883.69823</v>
       </c>
       <c r="H23" s="42">
         <f>($F$21-G23)/$F$21</f>
-        <v>0.0550178860798642</v>
+        <v>0.0596288925998918</v>
       </c>
       <c r="I23" s="43">
-        <v>808.25733</v>
+        <v>798.838231</v>
       </c>
       <c r="J23" s="41">
-        <v>755.677798</v>
+        <v>742.601998</v>
       </c>
       <c r="K23" s="42">
         <f t="shared" si="8"/>
-        <v>0.0650529602991661</v>
+        <v>0.0703975233253452</v>
       </c>
       <c r="L23" s="86"/>
       <c r="M23" s="90" t="s">
         <v>21</v>
       </c>
       <c r="N23" s="88">
-        <v>132.574409</v>
+        <v>131.029441</v>
       </c>
       <c r="O23" s="41">
-        <v>123.950051</v>
+        <v>121.805293</v>
       </c>
       <c r="P23" s="42">
         <f t="shared" si="6"/>
-        <v>0.0650529620690219</v>
+        <v>0.0703975223400364</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -6977,46 +6977,46 @@
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="44">
-        <v>2309.635714</v>
+        <v>2305.625833</v>
       </c>
       <c r="E24" s="45">
         <f t="shared" si="7"/>
-        <v>0.310556503283582</v>
+        <v>0.311753482686567</v>
       </c>
       <c r="F24" s="46">
-        <v>2011.368198</v>
+        <v>2011.675804</v>
       </c>
       <c r="G24" s="44">
-        <v>1559.331411</v>
+        <v>1560.772589</v>
       </c>
       <c r="H24" s="45">
         <f>($F$24-G24)/$F$21</f>
-        <v>0.225705061157309</v>
+        <v>0.225097814961486</v>
       </c>
       <c r="I24" s="46">
-        <v>426.287935</v>
+        <v>418.456661</v>
       </c>
       <c r="J24" s="44">
-        <v>296.304304</v>
+        <v>290.853244</v>
       </c>
       <c r="K24" s="45">
         <f t="shared" si="8"/>
-        <v>0.304919797929538</v>
+        <v>0.304938190480854</v>
       </c>
       <c r="L24" s="86"/>
       <c r="M24" s="91">
         <f t="shared" si="9"/>
-        <v>0.128290492827043</v>
+        <v>0.126149369007352</v>
       </c>
       <c r="N24" s="92">
-        <v>69.921879</v>
+        <v>68.637354</v>
       </c>
       <c r="O24" s="93">
-        <v>48.601313</v>
+        <v>47.707203</v>
       </c>
       <c r="P24" s="45">
         <f t="shared" si="6"/>
-        <v>0.304919809148722</v>
+        <v>0.304938197355335</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -7026,44 +7026,44 @@
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="44">
-        <v>2630.41992</v>
+        <v>2613.419412</v>
       </c>
       <c r="E25" s="45">
         <f t="shared" si="7"/>
-        <v>0.214800023880597</v>
+        <v>0.21987480238806</v>
       </c>
       <c r="F25" s="46"/>
       <c r="G25" s="44">
-        <v>1694.357505</v>
+        <v>1689.618572</v>
       </c>
       <c r="H25" s="45">
         <f>($F$24-G25)/$F$21</f>
-        <v>0.158285608403561</v>
+        <v>0.160775919984834</v>
       </c>
       <c r="I25" s="46">
-        <v>607.529058</v>
+        <v>594.652474</v>
       </c>
       <c r="J25" s="94">
-        <v>482.062414</v>
+        <v>469.800839</v>
       </c>
       <c r="K25" s="45">
         <f t="shared" si="8"/>
-        <v>0.206519576879235</v>
+        <v>0.209957311974456</v>
       </c>
       <c r="L25" s="86"/>
       <c r="M25" s="91">
         <f t="shared" si="9"/>
-        <v>0.183264432547333</v>
+        <v>0.179764808068243</v>
       </c>
       <c r="N25" s="92">
-        <v>99.649954</v>
+        <v>97.537872</v>
       </c>
       <c r="O25" s="93">
-        <v>79.070288</v>
+        <v>77.059083</v>
       </c>
       <c r="P25" s="45">
         <f t="shared" si="6"/>
-        <v>0.206519573506276</v>
+        <v>0.209957307659941</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -7073,43 +7073,43 @@
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="47">
-        <v>3050.592523</v>
+        <v>3007.956127</v>
       </c>
       <c r="E26" s="48">
         <f t="shared" si="7"/>
-        <v>0.0893753662686568</v>
+        <v>0.102102648656716</v>
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="47">
-        <v>1877.031479</v>
+        <v>1859.656939</v>
       </c>
       <c r="H26" s="48">
         <f>($F$24-G26)/$F$21</f>
-        <v>0.0670752430986711</v>
+        <v>0.0758901538203163</v>
       </c>
       <c r="I26" s="49">
-        <v>788.77018</v>
+        <v>770.848286</v>
       </c>
       <c r="J26" s="47">
-        <v>719.561044</v>
+        <v>694.299189</v>
       </c>
       <c r="K26" s="48">
         <f t="shared" si="8"/>
-        <v>0.0877430939389721</v>
+        <v>0.0993050103246906</v>
       </c>
       <c r="L26" s="95"/>
       <c r="M26" s="96" t="s">
         <v>21</v>
       </c>
       <c r="N26" s="97">
-        <v>129.378029</v>
+        <v>126.43839</v>
       </c>
       <c r="O26" s="47">
-        <v>118.026</v>
+        <v>113.882424</v>
       </c>
       <c r="P26" s="48">
         <f t="shared" si="6"/>
-        <v>0.0877430974002549</v>
+        <v>0.0993050132954081</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/cfg-case-study/result-summary/weight-analysis/mtow_iteration_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/weight-analysis/mtow_iteration_1500_3000_ft.xlsx
@@ -1440,13 +1440,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1995.738502</c:v>
+                  <c:v>1995.814096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2231.68832</c:v>
+                  <c:v>2231.785148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2504.770182</c:v>
+                  <c:v>2504.897799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,13 +1559,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1950.080367</c:v>
+                  <c:v>1950.117552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2180.475032</c:v>
+                  <c:v>2180.522794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2448.381243</c:v>
+                  <c:v>2448.444514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2364,13 +2364,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2159.144378</c:v>
+                  <c:v>2159.26233</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2442.19525</c:v>
+                  <c:v>2442.374331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2908.644764</c:v>
+                  <c:v>2909.020802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,13 +2483,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2190.733039</c:v>
+                  <c:v>2190.79895</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2515.541883</c:v>
+                  <c:v>2515.651697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3217.176714</c:v>
+                  <c:v>3217.608226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,13 +3219,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2357.661753</c:v>
+                  <c:v>2357.737606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2675.582315</c:v>
+                  <c:v>2675.686272</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3080.300227</c:v>
+                  <c:v>3080.453876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,13 +3380,13 @@
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2305.625833</c:v>
+                  <c:v>2305.662891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2613.419412</c:v>
+                  <c:v>2613.470211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3007.956127</c:v>
+                  <c:v>3008.032898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5946,8 +5946,8 @@
   <sheetPr/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6049,48 +6049,48 @@
         <v>3175</v>
       </c>
       <c r="D3" s="14">
-        <v>1995.738502</v>
+        <v>1995.814096</v>
       </c>
       <c r="E3" s="15">
         <f>($C$3-D3)/$C$3</f>
-        <v>0.371420944251969</v>
+        <v>0.37139713511811</v>
       </c>
       <c r="F3" s="13">
         <v>1702.792913</v>
       </c>
       <c r="G3" s="14">
-        <v>1255.427476</v>
+        <v>1255.454475</v>
       </c>
       <c r="H3" s="15">
         <f>($F$3-G3)/$F$3</f>
-        <v>0.262724511938346</v>
+        <v>0.262708656222837</v>
       </c>
       <c r="I3" s="13">
-        <v>401.98539</v>
+        <v>402.070314</v>
       </c>
       <c r="J3" s="14">
-        <v>286.311026</v>
+        <v>286.359621</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" ref="K3:K8" si="0">(I3-J3)/I3</f>
-        <v>0.287757632186583</v>
+        <v>0.287787207786745</v>
       </c>
       <c r="L3" s="59">
         <v>454</v>
       </c>
       <c r="M3" s="60">
         <f>J3/D3</f>
-        <v>0.143461192793083</v>
+        <v>0.143480107477906</v>
       </c>
       <c r="N3" s="61">
-        <v>65.935654</v>
+        <v>65.949583</v>
       </c>
       <c r="O3" s="62">
-        <v>46.962166</v>
+        <v>46.970137</v>
       </c>
       <c r="P3" s="15">
         <f>(N3-O3)/N3</f>
-        <v>0.28775763716547</v>
+        <v>0.287787202536216</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6102,44 +6102,44 @@
         <v>3175</v>
       </c>
       <c r="D4" s="19">
-        <v>2231.68832</v>
+        <v>2231.785148</v>
       </c>
       <c r="E4" s="20">
         <f>($C$3-D4)/$C$3</f>
-        <v>0.297106040944882</v>
+        <v>0.297075543937008</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="19">
-        <v>1340.700529</v>
+        <v>1340.735941</v>
       </c>
       <c r="H4" s="20">
         <f>($F$3-G4)/$F$3</f>
-        <v>0.212646165740766</v>
+        <v>0.212625369318765</v>
       </c>
       <c r="I4" s="18">
-        <v>563.080651</v>
+        <v>563.165574</v>
       </c>
       <c r="J4" s="19">
-        <v>436.987791</v>
+        <v>437.049207</v>
       </c>
       <c r="K4" s="20">
         <f t="shared" si="0"/>
-        <v>0.223933924520521</v>
+        <v>0.223941897059212</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="63">
         <f>J4/D4</f>
-        <v>0.195810403757457</v>
+        <v>0.195829427125482</v>
       </c>
       <c r="N4" s="64">
-        <v>92.359304</v>
+        <v>92.373233</v>
       </c>
       <c r="O4" s="65">
-        <v>71.676922</v>
+        <v>71.686996</v>
       </c>
       <c r="P4" s="20">
         <f>(N4-O4)/N4</f>
-        <v>0.223933930900995</v>
+        <v>0.223941896674765</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6151,44 +6151,44 @@
         <v>3175</v>
       </c>
       <c r="D5" s="19">
-        <v>2504.770182</v>
+        <v>2504.897799</v>
       </c>
       <c r="E5" s="20">
         <f>($C$3-D5)/$C$3</f>
-        <v>0.211096005669291</v>
+        <v>0.211055811338583</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="19">
-        <v>1441.972156</v>
+        <v>1442.020146</v>
       </c>
       <c r="H5" s="20">
         <f>($F$3-G5)/$F$3</f>
-        <v>0.153172329417605</v>
+        <v>0.15314414630759</v>
       </c>
       <c r="I5" s="18">
-        <v>724.175911</v>
+        <v>724.260835</v>
       </c>
       <c r="J5" s="19">
-        <v>608.798026</v>
+        <v>608.877653</v>
       </c>
       <c r="K5" s="20">
         <f t="shared" si="0"/>
-        <v>0.159323008743383</v>
+        <v>0.159311640812388</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="63">
         <f>J5/D5</f>
-        <v>0.243055442920471</v>
+        <v>0.243074848500037</v>
       </c>
       <c r="N5" s="64">
-        <v>118.782954</v>
+        <v>118.796883</v>
       </c>
       <c r="O5" s="65">
-        <v>99.858096</v>
+        <v>99.871157</v>
       </c>
       <c r="P5" s="20">
         <f>(N5-O5)/N5</f>
-        <v>0.159323011953382</v>
+        <v>0.15931163783144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6200,46 +6200,46 @@
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24">
-        <v>1950.080367</v>
+        <v>1950.117552</v>
       </c>
       <c r="E6" s="25">
         <f>($C$3-D6)/$C$3</f>
-        <v>0.385801459212598</v>
+        <v>0.385789747401575</v>
       </c>
       <c r="F6" s="23">
         <v>1710.074299</v>
       </c>
       <c r="G6" s="24">
-        <v>1243.069238</v>
+        <v>1243.082552</v>
       </c>
       <c r="H6" s="25">
         <f>($F$6-G6)/$F$3</f>
-        <v>0.274258283220844</v>
+        <v>0.274250464301762</v>
       </c>
       <c r="I6" s="23">
-        <v>389.736768</v>
+        <v>389.779215</v>
       </c>
       <c r="J6" s="24">
-        <v>253.011129</v>
+        <v>253.035</v>
       </c>
       <c r="K6" s="25">
         <f t="shared" si="0"/>
-        <v>0.350815345705335</v>
+        <v>0.350824799624064</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="66">
         <f>J6/D6</f>
-        <v>0.129743949675896</v>
+        <v>0.129753716508265</v>
       </c>
       <c r="N6" s="67">
-        <v>63.926573</v>
+        <v>63.933536</v>
       </c>
       <c r="O6" s="68">
-        <v>41.50015</v>
+        <v>41.504066</v>
       </c>
       <c r="P6" s="25">
         <f>(N6-O6)/N6</f>
-        <v>0.350815348728298</v>
+        <v>0.350824800305117</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6249,44 +6249,44 @@
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="24">
-        <v>2180.475032</v>
+        <v>2180.522794</v>
       </c>
       <c r="E7" s="25">
         <f>($C$3-D7)/$C$3</f>
-        <v>0.313236210393701</v>
+        <v>0.313221167244094</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24">
-        <v>1326.516017</v>
+        <v>1326.533518</v>
       </c>
       <c r="H7" s="25">
         <f>($F$6-G7)/$F$3</f>
-        <v>0.225252453819674</v>
+        <v>0.22524217599912</v>
       </c>
       <c r="I7" s="23">
-        <v>547.273587</v>
+        <v>547.316034</v>
       </c>
       <c r="J7" s="24">
-        <v>399.959014</v>
+        <v>399.989276</v>
       </c>
       <c r="K7" s="25">
         <f t="shared" si="0"/>
-        <v>0.269179029464106</v>
+        <v>0.269180416519645</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="66">
         <f t="shared" ref="M7:M17" si="1">J7/D7</f>
-        <v>0.183427467928007</v>
+        <v>0.183437328470321</v>
       </c>
       <c r="N7" s="67">
-        <v>89.76655</v>
+        <v>89.773512</v>
       </c>
       <c r="O7" s="68">
-        <v>65.603277</v>
+        <v>65.608241</v>
       </c>
       <c r="P7" s="25">
         <f t="shared" ref="P7:P15" si="2">(N7-O7)/N7</f>
-        <v>0.269179031610327</v>
+        <v>0.269180412592079</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -6296,44 +6296,44 @@
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="29">
-        <v>2448.381243</v>
+        <v>2448.444514</v>
       </c>
       <c r="E8" s="30">
         <f>($C$3-D8)/$C$3</f>
-        <v>0.228856301417323</v>
+        <v>0.228836373543307</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="29">
-        <v>1426.034066</v>
+        <v>1426.057893</v>
       </c>
       <c r="H8" s="30">
         <f>($F$6-G8)/$F$3</f>
-        <v>0.166808442078594</v>
+        <v>0.166794449185026</v>
       </c>
       <c r="I8" s="28">
-        <v>704.810406</v>
+        <v>704.852852</v>
       </c>
       <c r="J8" s="29">
-        <v>568.347177</v>
+        <v>568.386621</v>
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>0.193616932778373</v>
+        <v>0.193609532277242</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="69">
         <f t="shared" si="1"/>
-        <v>0.232131813060128</v>
+        <v>0.232141924291122</v>
       </c>
       <c r="N8" s="70">
-        <v>115.606527</v>
+        <v>115.613489</v>
       </c>
       <c r="O8" s="71">
-        <v>93.223146</v>
+        <v>93.229616</v>
       </c>
       <c r="P8" s="30">
         <f t="shared" si="2"/>
-        <v>0.193616931334681</v>
+        <v>0.193609527691012</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:15">
@@ -6438,48 +6438,48 @@
         <v>2404</v>
       </c>
       <c r="D12" s="14">
-        <v>2159.144378</v>
+        <v>2159.26233</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" ref="E12:E17" si="3">($C$12-D12)/$C$12</f>
-        <v>0.101853420133111</v>
+        <v>0.101804355241265</v>
       </c>
       <c r="F12" s="13">
         <v>1590.989629</v>
       </c>
       <c r="G12" s="14">
-        <v>1467.537826</v>
+        <v>1467.596254</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" ref="H12:H17" si="4">($F$12-G12)/$F$12</f>
-        <v>0.0775943480395873</v>
+        <v>0.0775576237272882</v>
       </c>
       <c r="I12" s="13">
-        <v>269.272137</v>
+        <v>269.324889</v>
       </c>
       <c r="J12" s="14">
-        <v>237.606551</v>
+        <v>237.666075</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" ref="K12:K17" si="5">(I12-J12)/I12</f>
-        <v>0.117596964739059</v>
+        <v>0.117548786959678</v>
       </c>
       <c r="L12" s="59">
         <v>454</v>
       </c>
       <c r="M12" s="75">
         <f t="shared" si="1"/>
-        <v>0.110046624681992</v>
+        <v>0.110068180090003</v>
       </c>
       <c r="N12" s="61">
-        <v>44.167362</v>
+        <v>44.176015</v>
       </c>
       <c r="O12" s="62">
-        <v>38.973415</v>
+        <v>38.983178</v>
       </c>
       <c r="P12" s="15">
         <f t="shared" si="2"/>
-        <v>0.117596948624643</v>
+        <v>0.117548787503807</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -6491,44 +6491,44 @@
         <v>2404</v>
       </c>
       <c r="D13" s="19">
-        <v>2442.19525</v>
+        <v>2442.374331</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" si="3"/>
-        <v>-0.0158882071547422</v>
+        <v>-0.0159627000831947</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="19">
-        <v>1610.636345</v>
+        <v>1610.728707</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="4"/>
-        <v>-0.0123487392009895</v>
+        <v>-0.0124067923763946</v>
       </c>
       <c r="I13" s="18">
-        <v>370.628415</v>
+        <v>370.681167</v>
       </c>
       <c r="J13" s="19">
-        <v>377.558905</v>
+        <v>377.645624</v>
       </c>
       <c r="K13" s="20">
         <f t="shared" si="5"/>
-        <v>-0.0186992948179647</v>
+        <v>-0.0187882677082431</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="76">
         <f t="shared" si="1"/>
-        <v>0.154598165318682</v>
+        <v>0.154622335817531</v>
       </c>
       <c r="N13" s="64">
-        <v>60.792326</v>
+        <v>60.800978</v>
       </c>
       <c r="O13" s="65">
-        <v>61.929099</v>
+        <v>61.943324</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="2"/>
-        <v>-0.0186992845116668</v>
+        <v>-0.0187882833068902</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -6540,44 +6540,44 @@
         <v>2404</v>
       </c>
       <c r="D14" s="19">
-        <v>2908.644764</v>
+        <v>2909.020802</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="3"/>
-        <v>-0.209918787021631</v>
+        <v>-0.210075208818636</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19">
-        <v>1859.014144</v>
+        <v>1859.220646</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="4"/>
-        <v>-0.168464023972591</v>
+        <v>-0.168593818659015</v>
       </c>
       <c r="I14" s="18">
-        <v>471.984692</v>
+        <v>472.037444</v>
       </c>
       <c r="J14" s="19">
-        <v>595.63062</v>
+        <v>595.800156</v>
       </c>
       <c r="K14" s="20">
         <f t="shared" si="5"/>
-        <v>-0.261970208135479</v>
+        <v>-0.262188336059205</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="76">
         <f t="shared" si="1"/>
-        <v>0.204779431084902</v>
+        <v>0.204811239435063</v>
       </c>
       <c r="N14" s="64">
-        <v>77.417289</v>
+        <v>77.425942</v>
       </c>
       <c r="O14" s="65">
-        <v>97.698312</v>
+        <v>97.726121</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="2"/>
-        <v>-0.261970204097434</v>
+        <v>-0.262188337340474</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6589,46 +6589,46 @@
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24">
-        <v>2190.733039</v>
+        <v>2190.79895</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" si="3"/>
-        <v>0.0887133781198002</v>
+        <v>0.0886859608985025</v>
       </c>
       <c r="F15" s="23">
         <v>1598.032431</v>
       </c>
       <c r="G15" s="24">
-        <v>1489.521117</v>
+        <v>1489.554143</v>
       </c>
       <c r="H15" s="25">
         <f>($F$15-G15)/$F$12</f>
-        <v>0.0682036589190111</v>
+        <v>0.0681829007698705</v>
       </c>
       <c r="I15" s="23">
-        <v>280.707372</v>
+        <v>280.733739</v>
       </c>
       <c r="J15" s="24">
-        <v>247.211921</v>
+        <v>247.244807</v>
       </c>
       <c r="K15" s="25">
         <f t="shared" si="5"/>
-        <v>0.119325156162981</v>
+        <v>0.119290727645671</v>
       </c>
       <c r="L15" s="22"/>
       <c r="M15" s="77">
         <f t="shared" si="1"/>
-        <v>0.112844384322083</v>
+        <v>0.11285600031897</v>
       </c>
       <c r="N15" s="67">
-        <v>46.043027</v>
+        <v>46.047351</v>
       </c>
       <c r="O15" s="68">
-        <v>40.548935</v>
+        <v>40.554329</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="2"/>
-        <v>0.119325169476803</v>
+        <v>0.119290727494835</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -6638,44 +6638,44 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24">
-        <v>2515.541883</v>
+        <v>2515.651697</v>
       </c>
       <c r="E16" s="25">
         <f t="shared" si="3"/>
-        <v>-0.046398453826955</v>
+        <v>-0.0464441335274542</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="24">
-        <v>1656.099411</v>
+        <v>1656.157021</v>
       </c>
       <c r="H16" s="25">
         <f>($F$15-G16)/$F$12</f>
-        <v>-0.0364973969292919</v>
+        <v>-0.0365336070961905</v>
       </c>
       <c r="I16" s="23">
-        <v>381.547035</v>
+        <v>381.573401</v>
       </c>
       <c r="J16" s="24">
-        <v>405.442472</v>
+        <v>405.494676</v>
       </c>
       <c r="K16" s="25">
         <f t="shared" si="5"/>
-        <v>-0.0626277622626527</v>
+        <v>-0.0626911491663436</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="77">
         <f t="shared" si="1"/>
-        <v>0.16117500358073</v>
+        <v>0.161188719600399</v>
       </c>
       <c r="N16" s="67">
-        <v>62.583252</v>
+        <v>62.587577</v>
       </c>
       <c r="O16" s="68">
-        <v>66.502702</v>
+        <v>66.511264</v>
       </c>
       <c r="P16" s="25">
         <f t="shared" ref="P16:P26" si="6">(N16-O16)/N16</f>
-        <v>-0.0626277777958869</v>
+        <v>-0.0626911471584847</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -6685,44 +6685,44 @@
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="29">
-        <v>3217.176714</v>
+        <v>3217.608226</v>
       </c>
       <c r="E17" s="30">
         <f t="shared" si="3"/>
-        <v>-0.338259864392679</v>
+        <v>-0.338439361896839</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="29">
-        <v>2041.896721</v>
+        <v>2042.144806</v>
       </c>
       <c r="H17" s="30">
         <f>($F$15-G17)/$F$12</f>
-        <v>-0.278986287471268</v>
+        <v>-0.27914221872027</v>
       </c>
       <c r="I17" s="28">
-        <v>482.386697</v>
+        <v>482.413064</v>
       </c>
       <c r="J17" s="29">
-        <v>721.279993</v>
+        <v>721.463421</v>
       </c>
       <c r="K17" s="30">
         <f t="shared" si="5"/>
-        <v>-0.495231932152557</v>
+        <v>-0.495530438205546</v>
       </c>
       <c r="L17" s="27"/>
       <c r="M17" s="78">
         <f t="shared" si="1"/>
-        <v>0.224196572684754</v>
+        <v>0.224223513344536</v>
       </c>
       <c r="N17" s="70">
-        <v>79.123478</v>
+        <v>79.127803</v>
       </c>
       <c r="O17" s="71">
-        <v>118.307951</v>
+        <v>118.338038</v>
       </c>
       <c r="P17" s="30">
         <f t="shared" si="6"/>
-        <v>-0.495231933560858</v>
+        <v>-0.495530439534635</v>
       </c>
     </row>
     <row r="18" ht="50" customHeight="1" spans="3:15">
@@ -6827,48 +6827,48 @@
         <v>3350</v>
       </c>
       <c r="D21" s="38">
-        <v>2357.661753</v>
+        <v>2357.737606</v>
       </c>
       <c r="E21" s="39">
         <f t="shared" ref="E21:E26" si="7">($C$21-D21)/$C$21</f>
-        <v>0.296220372238806</v>
+        <v>0.296197729552239</v>
       </c>
       <c r="F21" s="40">
         <v>2003.143456</v>
       </c>
       <c r="G21" s="38">
-        <v>1576.579881</v>
+        <v>1576.611167</v>
       </c>
       <c r="H21" s="39">
         <f>($F$21-G21)/$F$21</f>
-        <v>0.212947092592055</v>
+        <v>0.212931474140013</v>
       </c>
       <c r="I21" s="40">
-        <v>438.831743</v>
+        <v>438.894369</v>
       </c>
       <c r="J21" s="38">
-        <v>327.081872</v>
+        <v>327.126439</v>
       </c>
       <c r="K21" s="39">
         <f t="shared" ref="K21:K26" si="8">(I21-J21)/I21</f>
-        <v>0.254653116559073</v>
+        <v>0.254657926586431</v>
       </c>
       <c r="L21" s="82">
         <v>454</v>
       </c>
       <c r="M21" s="83">
         <f t="shared" ref="M21:M26" si="9">J21/D21</f>
-        <v>0.138731466285953</v>
+        <v>0.13874590546782</v>
       </c>
       <c r="N21" s="84">
-        <v>71.979377</v>
+        <v>71.989649</v>
       </c>
       <c r="O21" s="85">
-        <v>53.649604</v>
+        <v>53.656914</v>
       </c>
       <c r="P21" s="39">
         <f t="shared" si="6"/>
-        <v>0.254653120990475</v>
+        <v>0.254657930058806</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -6880,44 +6880,44 @@
         <v>3350</v>
       </c>
       <c r="D22" s="41">
-        <v>2675.582315</v>
+        <v>2675.686272</v>
       </c>
       <c r="E22" s="42">
         <f t="shared" si="7"/>
-        <v>0.201318711940298</v>
+        <v>0.20128768</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="41">
-        <v>1709.426966</v>
+        <v>1709.470979</v>
       </c>
       <c r="H22" s="42">
         <f>($F$21-G22)/$F$21</f>
-        <v>0.146627786003161</v>
+        <v>0.146605814037115</v>
       </c>
       <c r="I22" s="43">
-        <v>618.834987</v>
+        <v>618.897613</v>
       </c>
       <c r="J22" s="41">
-        <v>512.155349</v>
+        <v>512.215293</v>
       </c>
       <c r="K22" s="42">
         <f t="shared" si="8"/>
-        <v>0.172387858219141</v>
+        <v>0.172374747872876</v>
       </c>
       <c r="L22" s="86"/>
       <c r="M22" s="87">
         <f t="shared" si="9"/>
-        <v>0.191418274118769</v>
+        <v>0.1914332402719</v>
       </c>
       <c r="N22" s="88">
-        <v>101.504409</v>
+        <v>101.514681</v>
       </c>
       <c r="O22" s="89">
-        <v>84.006281</v>
+        <v>84.016113</v>
       </c>
       <c r="P22" s="42">
         <f t="shared" si="6"/>
-        <v>0.172387861496736</v>
+        <v>0.172374752376949</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:16">
@@ -6929,43 +6929,43 @@
         <v>3350</v>
       </c>
       <c r="D23" s="41">
-        <v>3080.300227</v>
+        <v>3080.453876</v>
       </c>
       <c r="E23" s="42">
         <f t="shared" si="7"/>
-        <v>0.0805073949253731</v>
+        <v>0.0804615295522388</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="41">
-        <v>1883.69823</v>
+        <v>1883.765517</v>
       </c>
       <c r="H23" s="42">
         <f>($F$21-G23)/$F$21</f>
-        <v>0.0596288925998918</v>
+        <v>0.0595953018953426</v>
       </c>
       <c r="I23" s="43">
-        <v>798.838231</v>
+        <v>798.900857</v>
       </c>
       <c r="J23" s="41">
-        <v>742.601998</v>
+        <v>742.68836</v>
       </c>
       <c r="K23" s="42">
         <f t="shared" si="8"/>
-        <v>0.0703975233253452</v>
+        <v>0.0703622940286819</v>
       </c>
       <c r="L23" s="86"/>
       <c r="M23" s="90" t="s">
         <v>21</v>
       </c>
       <c r="N23" s="88">
-        <v>131.029441</v>
+        <v>131.039713</v>
       </c>
       <c r="O23" s="41">
-        <v>121.805293</v>
+        <v>121.819458</v>
       </c>
       <c r="P23" s="42">
         <f t="shared" si="6"/>
-        <v>0.0703975223400364</v>
+        <v>0.0703622954363461</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -6977,46 +6977,46 @@
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="44">
-        <v>2305.625833</v>
+        <v>2305.662891</v>
       </c>
       <c r="E24" s="45">
         <f t="shared" si="7"/>
-        <v>0.311753482686567</v>
+        <v>0.311742420597015</v>
       </c>
       <c r="F24" s="46">
         <v>2011.675804</v>
       </c>
       <c r="G24" s="44">
-        <v>1560.772589</v>
+        <v>1560.787908</v>
       </c>
       <c r="H24" s="45">
         <f>($F$24-G24)/$F$21</f>
-        <v>0.225097814961486</v>
+        <v>0.225090167481245</v>
       </c>
       <c r="I24" s="46">
-        <v>418.456661</v>
+        <v>418.487963</v>
       </c>
       <c r="J24" s="44">
-        <v>290.853244</v>
+        <v>290.874983</v>
       </c>
       <c r="K24" s="45">
         <f t="shared" si="8"/>
-        <v>0.304938190480854</v>
+        <v>0.304938233074102</v>
       </c>
       <c r="L24" s="86"/>
       <c r="M24" s="91">
         <f t="shared" si="9"/>
-        <v>0.126149369007352</v>
+        <v>0.126156769983769</v>
       </c>
       <c r="N24" s="92">
-        <v>68.637354</v>
+        <v>68.642488</v>
       </c>
       <c r="O24" s="93">
-        <v>47.707203</v>
+        <v>47.710769</v>
       </c>
       <c r="P24" s="45">
         <f t="shared" si="6"/>
-        <v>0.304938197355335</v>
+        <v>0.304938233008104</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -7026,44 +7026,44 @@
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="44">
-        <v>2613.419412</v>
+        <v>2613.470211</v>
       </c>
       <c r="E25" s="45">
         <f t="shared" si="7"/>
-        <v>0.21987480238806</v>
+        <v>0.219859638507463</v>
       </c>
       <c r="F25" s="46"/>
       <c r="G25" s="44">
-        <v>1689.618572</v>
+        <v>1689.640108</v>
       </c>
       <c r="H25" s="45">
         <f>($F$24-G25)/$F$21</f>
-        <v>0.160775919984834</v>
+        <v>0.160765168882642</v>
       </c>
       <c r="I25" s="46">
-        <v>594.652474</v>
+        <v>594.683776</v>
       </c>
       <c r="J25" s="94">
-        <v>469.800839</v>
+        <v>469.830102</v>
       </c>
       <c r="K25" s="45">
         <f t="shared" si="8"/>
-        <v>0.209957311974456</v>
+        <v>0.209949689295038</v>
       </c>
       <c r="L25" s="86"/>
       <c r="M25" s="91">
         <f t="shared" si="9"/>
-        <v>0.179764808068243</v>
+        <v>0.179772510902364</v>
       </c>
       <c r="N25" s="92">
-        <v>97.537872</v>
+        <v>97.543006</v>
       </c>
       <c r="O25" s="93">
-        <v>77.059083</v>
+        <v>77.063883</v>
       </c>
       <c r="P25" s="45">
         <f t="shared" si="6"/>
-        <v>0.209957307659941</v>
+        <v>0.209949681066831</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -7073,43 +7073,43 @@
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="47">
-        <v>3007.956127</v>
+        <v>3008.032898</v>
       </c>
       <c r="E26" s="48">
         <f t="shared" si="7"/>
-        <v>0.102102648656716</v>
+        <v>0.102079731940299</v>
       </c>
       <c r="F26" s="49"/>
       <c r="G26" s="47">
-        <v>1859.656939</v>
+        <v>1859.690574</v>
       </c>
       <c r="H26" s="48">
         <f>($F$24-G26)/$F$21</f>
-        <v>0.0758901538203163</v>
+        <v>0.0758733627113724</v>
       </c>
       <c r="I26" s="49">
-        <v>770.848286</v>
+        <v>770.879588</v>
       </c>
       <c r="J26" s="47">
-        <v>694.299189</v>
+        <v>694.342324</v>
       </c>
       <c r="K26" s="48">
         <f t="shared" si="8"/>
-        <v>0.0993050103246906</v>
+        <v>0.0992856279909698</v>
       </c>
       <c r="L26" s="95"/>
       <c r="M26" s="96" t="s">
         <v>21</v>
       </c>
       <c r="N26" s="97">
-        <v>126.43839</v>
+        <v>126.443524</v>
       </c>
       <c r="O26" s="47">
-        <v>113.882424</v>
+        <v>113.8895</v>
       </c>
       <c r="P26" s="48">
         <f t="shared" si="6"/>
-        <v>0.0993050132954081</v>
+        <v>0.0992856225677481</v>
       </c>
     </row>
   </sheetData>
